--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33182-d225560-Reviews-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Torrance-Del-Amo-Circle.h202559.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1511 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r591163698-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>33182</t>
+  </si>
+  <si>
+    <t>225560</t>
+  </si>
+  <si>
+    <t>591163698</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Dirty Room</t>
+  </si>
+  <si>
+    <t>First of all I usually do not write reviews because some can be very biased.   But I had to in this case.   Pro: Bed was good for the price.  Manager tried to do something but she was the only one.Cons:. Room was very dirty (looks like it wasn't dusted in a LONG time.  Tub was very dirty and either had mold along the edges or dents in the material.  Decided not to touch and find out for sure.  Had a hard time sleeping because of allergies and the amount of dust.  Pillows were hard as a rock.We stayed there 5 nights, manager gave us 2 nights free.  Mgr also sent someone to clean the room but the dust wasn't addressed.. just the beds made etc....   Front desk staff obviously didn't like their jobs... Wasn't rude but not helpful.   A couple of other things happened which I didn't address in this review.  Needless to say... I do not recommend and will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>First of all I usually do not write reviews because some can be very biased.   But I had to in this case.   Pro: Bed was good for the price.  Manager tried to do something but she was the only one.Cons:. Room was very dirty (looks like it wasn't dusted in a LONG time.  Tub was very dirty and either had mold along the edges or dents in the material.  Decided not to touch and find out for sure.  Had a hard time sleeping because of allergies and the amount of dust.  Pillows were hard as a rock.We stayed there 5 nights, manager gave us 2 nights free.  Mgr also sent someone to clean the room but the dust wasn't addressed.. just the beds made etc....   Front desk staff obviously didn't like their jobs... Wasn't rude but not helpful.   A couple of other things happened which I didn't address in this review.  Needless to say... I do not recommend and will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r572579775-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>572579775</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Great for a few nights stay.  I wouldn't stay much longer because of the funky odor in the halls.  If you need an inexpensive place to stay, this place was fine.  We were visiting our daughter, so we weren't interested in what the location had to offer, except that it was close to her home.  But for the record, it was very close to a huge mall and lots of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Great for a few nights stay.  I wouldn't stay much longer because of the funky odor in the halls.  If you need an inexpensive place to stay, this place was fine.  We were visiting our daughter, so we weren't interested in what the location had to offer, except that it was close to her home.  But for the record, it was very close to a huge mall and lots of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r572347062-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>572347062</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>NICE CONFORTABLE</t>
+  </si>
+  <si>
+    <t>It was a nice experience everything is within 5 min drive. Continental breakfast was not what i expected only coffee and bread,  but yummy. Friendly staff super busy. One thing i wish they had is ice maker....MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>It was a nice experience everything is within 5 min drive. Continental breakfast was not what i expected only coffee and bread,  but yummy. Friendly staff super busy. One thing i wish they had is ice maker....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r562020054-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>562020054</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Dirty lobby, and everywhere else.</t>
+  </si>
+  <si>
+    <t>Dirty lobby, dirty continental breakfast bar, fingerprints on the room doors, nasty floors. I checked out after 6 days, paid for 7 no refund was given, I didnt even ask. Then 2 days later I was charged an additional 50 dollars for a "rate adjustment" Manager very rude, would not help in any way. I am currently disputing the charge with my card company. Avoid this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Dirty lobby, dirty continental breakfast bar, fingerprints on the room doors, nasty floors. I checked out after 6 days, paid for 7 no refund was given, I didnt even ask. Then 2 days later I was charged an additional 50 dollars for a "rate adjustment" Manager very rude, would not help in any way. I am currently disputing the charge with my card company. Avoid this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r557955474-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>557955474</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Worst experience ever, did not get reserved room and transferred to another location!</t>
+  </si>
+  <si>
+    <t>I had worst experience with extended stay america in this location because they did not have the room that was reserved and they had to transfer me to another extended stay america. I had reservation for a studio suite with 2 queen beds for 3 adults and 1 infant since I bring my mom who in wheelchair and also a 3-month old baby. We came for check-in before 6 pm and the receptionist (his name is Mel) can only get me a room with one King bed. It does not make sense for 3 adults and 1 baby to stay in a room with one king bed. I complained but the receptionist keep saying he cannot do anything else for me except to find me a room in another location. It was so terrible, how come I could not get the room that was reserved and paid? and paired with unhelpful and unprofessional receptionist even make it worst. The receptionist even requested for wrong room when he transferred me to another extended stay america (Harbor Gateway) but luckily the receptionist in Harbor Gateway location was very professional and she managed to give me studio suite with 2 beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>I had worst experience with extended stay america in this location because they did not have the room that was reserved and they had to transfer me to another extended stay america. I had reservation for a studio suite with 2 queen beds for 3 adults and 1 infant since I bring my mom who in wheelchair and also a 3-month old baby. We came for check-in before 6 pm and the receptionist (his name is Mel) can only get me a room with one King bed. It does not make sense for 3 adults and 1 baby to stay in a room with one king bed. I complained but the receptionist keep saying he cannot do anything else for me except to find me a room in another location. It was so terrible, how come I could not get the room that was reserved and paid? and paired with unhelpful and unprofessional receptionist even make it worst. The receptionist even requested for wrong room when he transferred me to another extended stay america (Harbor Gateway) but luckily the receptionist in Harbor Gateway location was very professional and she managed to give me studio suite with 2 beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r540836853-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>540836853</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>old hotel</t>
+  </si>
+  <si>
+    <t>The hotel need a update, room was old so was the bedding and  sheets, there was wall outlet and bed lights does not work, we did find trash under the bed and free wifi is bit slow. only thing I can commend is the location was great, walking distance to the Mall and all kids food and shopping .MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>The hotel need a update, room was old so was the bedding and  sheets, there was wall outlet and bed lights does not work, we did find trash under the bed and free wifi is bit slow. only thing I can commend is the location was great, walking distance to the Mall and all kids food and shopping .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r531567385-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>531567385</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>It is very convenient. It’s close to many kind of restaurants, shopping mall, groceries and so on. Very quiet and safe. The stuff are very friendly.  A room is just OK, nothing special. But hey for this price, who would like to complain about it. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>It is very convenient. It’s close to many kind of restaurants, shopping mall, groceries and so on. Very quiet and safe. The stuff are very friendly.  A room is just OK, nothing special. But hey for this price, who would like to complain about it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r531546390-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>531546390</t>
+  </si>
+  <si>
+    <t>Good rates, location, weather and Torrance Del Amo Fashion Square is one block away.</t>
+  </si>
+  <si>
+    <t>Special thanks to Kalpi (site manager), Dan, Dolores, Tushi, Maltilde and special thanks to Jazmine for sharing her like for Chocolate Chip Cookies with me, Oh and special thanks to FIna wherever she may be! .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Special thanks to Kalpi (site manager), Dan, Dolores, Tushi, Maltilde and special thanks to Jazmine for sharing her like for Chocolate Chip Cookies with me, Oh and special thanks to FIna wherever she may be! .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r529904241-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>529904241</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Clean good price safe area no frills</t>
+  </si>
+  <si>
+    <t>Just looking for a comfortable bed and shower....no need for pool or fitness room or elegant lobby?Got my AAA discount and good night's sleep.COMFORTABLE BED! Very important. Very clean. Includes TV desk, mini kitchen - stove sink fridge cabinets microwave. $109/ night. Why pay $250 Across the street?MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Just looking for a comfortable bed and shower....no need for pool or fitness room or elegant lobby?Got my AAA discount and good night's sleep.COMFORTABLE BED! Very important. Very clean. Includes TV desk, mini kitchen - stove sink fridge cabinets microwave. $109/ night. Why pay $250 Across the street?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r529241499-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>529241499</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>This location was extra nice.</t>
+  </si>
+  <si>
+    <t>Front desk ladies were amazing, including Jasmine.I live Extended Stay Hotels in general, but this location was a step up from some of the others, like the glass shower was nice! Location was very quiet too. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Front desk ladies were amazing, including Jasmine.I live Extended Stay Hotels in general, but this location was a step up from some of the others, like the glass shower was nice! Location was very quiet too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r526644761-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>526644761</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>You're better off at Air B'nB, friends, people you don't know, the street</t>
+  </si>
+  <si>
+    <t>You'll be OK here if you stay for less than a week or two at the most,. Any longer and you'll see why it is bare bones low end. Yes, you'll find over time that multiple repairs are needed for your room, but the real low-end of this place isn't the amenities but the extraordinary runaround you'll get if you want to request repairs, service they offer or anything else that requires some coordination and communication.This property caters to many foreigners and families that have lesser standards and will tolerate the lack of service here. So, if that is you...you're fine here.Extended Stay? Again, you're better off almost anywhere else if you explore your options. First...if you're here for anything more than a brief stay, you'll get a discount rate which means you're "family". That means you tolerate their poor communication, runaround, and disrespect, and don't mind the frequent frustration. No matter what the issue...they're always right. So, their standard is that you can go elsewhere if you're unhappy. So,,, if you want to be happy here, Just don't try to problem-solve, coordinate (even simple housekeeping and poor wi-fi) or reason with them about anything. The ballgame changes from minute to minute. Again, they're always right!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2017</t>
+  </si>
+  <si>
+    <t>You'll be OK here if you stay for less than a week or two at the most,. Any longer and you'll see why it is bare bones low end. Yes, you'll find over time that multiple repairs are needed for your room, but the real low-end of this place isn't the amenities but the extraordinary runaround you'll get if you want to request repairs, service they offer or anything else that requires some coordination and communication.This property caters to many foreigners and families that have lesser standards and will tolerate the lack of service here. So, if that is you...you're fine here.Extended Stay? Again, you're better off almost anywhere else if you explore your options. First...if you're here for anything more than a brief stay, you'll get a discount rate which means you're "family". That means you tolerate their poor communication, runaround, and disrespect, and don't mind the frequent frustration. No matter what the issue...they're always right. So, their standard is that you can go elsewhere if you're unhappy. So,,, if you want to be happy here, Just don't try to problem-solve, coordinate (even simple housekeeping and poor wi-fi) or reason with them about anything. The ballgame changes from minute to minute. Again, they're always right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r520645022-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>520645022</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Absolutely awful place</t>
+  </si>
+  <si>
+    <t>I have traveled the world and I have never had a bad experience like I did when I stayed here. Dirty, awful customer service and corporate doesn't respond to complaints they just send you back to the hotel you complained about and ignore your emails and phone calls. DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>I have traveled the world and I have never had a bad experience like I did when I stayed here. Dirty, awful customer service and corporate doesn't respond to complaints they just send you back to the hotel you complained about and ignore your emails and phone calls. DO NOT STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r506772592-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>506772592</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Good location, Just Average motel</t>
+  </si>
+  <si>
+    <t>I needed to stay in the South Bay area for a couple of days and did not want to spend summertime beach-area rates. This place is perfectly located for anything you want to do in the area. It's also a quiet spot because it's not on any main drag, but a couple of blocks from busy Hawthorne Boulevard.The room and bathroom were perfectly clean on my arrival. The building, the furniture and fixtures were just average. The bed was typical of average grade motels, clean but not very firm, with some sagging spots.The front desk is not manned all hours of the day and night, but all staff I came in contact with were friendly and helpful.Hot coffee is not available in the lobby until around 7:00 a.m., so if you need your early morning coffee, remember to ask at the front desk for a coffee maker and any other utensils you need before you go to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>I needed to stay in the South Bay area for a couple of days and did not want to spend summertime beach-area rates. This place is perfectly located for anything you want to do in the area. It's also a quiet spot because it's not on any main drag, but a couple of blocks from busy Hawthorne Boulevard.The room and bathroom were perfectly clean on my arrival. The building, the furniture and fixtures were just average. The bed was typical of average grade motels, clean but not very firm, with some sagging spots.The front desk is not manned all hours of the day and night, but all staff I came in contact with were friendly and helpful.Hot coffee is not available in the lobby until around 7:00 a.m., so if you need your early morning coffee, remember to ask at the front desk for a coffee maker and any other utensils you need before you go to bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r505341121-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>505341121</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Skip it</t>
+  </si>
+  <si>
+    <t>If you are seriously broke and this is all you can afford then go for it otherwise I would pass this place and find somewhere else. No Gym, rooms are okay but dated and the whole hotel was grimy and dirty. No food except a bag of oatmeal and they did have coffee but I couldn't even find a vending machine anywhere. place smelled like stale smokeMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>If you are seriously broke and this is all you can afford then go for it otherwise I would pass this place and find somewhere else. No Gym, rooms are okay but dated and the whole hotel was grimy and dirty. No food except a bag of oatmeal and they did have coffee but I couldn't even find a vending machine anywhere. place smelled like stale smokeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r504853606-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>504853606</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Bad rooms, no breakfast</t>
+  </si>
+  <si>
+    <t>Bad rooms, no breakfast Loud banging sound of door footsteps heard inside the roomNo kitchen utensilsNo cover for the sofa / couch on my king suite roomNo toilet paper on the bathroom when we got thereNo housekeepingMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Bad rooms, no breakfast Loud banging sound of door footsteps heard inside the roomNo kitchen utensilsNo cover for the sofa / couch on my king suite roomNo toilet paper on the bathroom when we got thereNo housekeepingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r499252203-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>499252203</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Needs Serious Repair Work &amp; Renovations</t>
+  </si>
+  <si>
+    <t>Needs to have their bath tubs repaired so that the water stays in the tubs.  Also, the rooms need closet doors a curtain or some sort of cover over the area where clothes and shoes go.  Don't just leave it exposed!  Need to keep their stairways clean, their glass door exits are filthy, the laundry area was dirty, trash was over flowing and trash on the floors.   Great location but that's it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Needs to have their bath tubs repaired so that the water stays in the tubs.  Also, the rooms need closet doors a curtain or some sort of cover over the area where clothes and shoes go.  Don't just leave it exposed!  Need to keep their stairways clean, their glass door exits are filthy, the laundry area was dirty, trash was over flowing and trash on the floors.   Great location but that's it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r492464774-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>492464774</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>The hotel is in a very nice area. With useful stores close by like a Wal-Mart target Ross and fast-food restaurants close by which are good to have when vacationing or on a road trip. And big Malls too. The price was good and they provide an ok breakfast snack table in the morning with coffee and hotcoco to drink. I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a very nice area. With useful stores close by like a Wal-Mart target Ross and fast-food restaurants close by which are good to have when vacationing or on a road trip. And big Malls too. The price was good and they provide an ok breakfast snack table in the morning with coffee and hotcoco to drink. I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r491961751-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>491961751</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Will never stay here again</t>
+  </si>
+  <si>
+    <t>Very low quality furniture and accommodations. Nothing like the website pics. Breakfast was a joke - decent coffee but small gas station muffins and packs of oatmeal. Dishes supplied for the room were terrible too. Staff was friendly though. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Very low quality furniture and accommodations. Nothing like the website pics. Breakfast was a joke - decent coffee but small gas station muffins and packs of oatmeal. Dishes supplied for the room were terrible too. Staff was friendly though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r455097736-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>455097736</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Adequate property brought down by rinky-dink staff that will insult your intelligence.</t>
+  </si>
+  <si>
+    <t>The rooms are well appointed with the amenities you need plus kitchenette. Nothing fancy here but adequate. Once in, you notice as many as 9 items that need repair. They try to accommodate you, but you learn to live with some things beyond repair for lack of replacements. But it doesn't stop there! 
+Don't waste your time reporting items that they feel are in good repair. It takes you a while to realize they have no intention of repairing that item. Reason: they are afraid you'll cost them money so they feign interest with feeble attempts to address the problem, when in reality, they don't want to discuss it with you. They'd rather make you the problem, and it goes downhill from there, to the point of subtle harrassment and bullying. Meantime, they'll make feeble attempts to solve the problem, when the goal is to discredit you so you are induced to leave the property early while they take no responsibility for property management. This is wholesale irresponsibility and unaccountability
+Reasonably quiet, but 3 fire alarms sounded, one at 12:10 AM in the 10 days I stayed.
+There were no fires and no explanation about why the alarms were pulled.
+You get what you pay for: 3 police cars were at the property one day. Property tends to attract foreigners, blue collar workers on business. 
+Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen...The rooms are well appointed with the amenities you need plus kitchenette. Nothing fancy here but adequate. Once in, you notice as many as 9 items that need repair. They try to accommodate you, but you learn to live with some things beyond repair for lack of replacements. But it doesn't stop there! Don't waste your time reporting items that they feel are in good repair. It takes you a while to realize they have no intention of repairing that item. Reason: they are afraid you'll cost them money so they feign interest with feeble attempts to address the problem, when in reality, they don't want to discuss it with you. They'd rather make you the problem, and it goes downhill from there, to the point of subtle harrassment and bullying. Meantime, they'll make feeble attempts to solve the problem, when the goal is to discredit you so you are induced to leave the property early while they take no responsibility for property management. This is wholesale irresponsibility and unaccountabilityReasonably quiet, but 3 fire alarms sounded, one at 12:10 AM in the 10 days I stayed.There were no fires and no explanation about why the alarms were pulled.You get what you pay for: 3 police cars were at the property one day. Property tends to attract foreigners, blue collar workers on business. Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen it for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are well appointed with the amenities you need plus kitchenette. Nothing fancy here but adequate. Once in, you notice as many as 9 items that need repair. They try to accommodate you, but you learn to live with some things beyond repair for lack of replacements. But it doesn't stop there! 
+Don't waste your time reporting items that they feel are in good repair. It takes you a while to realize they have no intention of repairing that item. Reason: they are afraid you'll cost them money so they feign interest with feeble attempts to address the problem, when in reality, they don't want to discuss it with you. They'd rather make you the problem, and it goes downhill from there, to the point of subtle harrassment and bullying. Meantime, they'll make feeble attempts to solve the problem, when the goal is to discredit you so you are induced to leave the property early while they take no responsibility for property management. This is wholesale irresponsibility and unaccountability
+Reasonably quiet, but 3 fire alarms sounded, one at 12:10 AM in the 10 days I stayed.
+There were no fires and no explanation about why the alarms were pulled.
+You get what you pay for: 3 police cars were at the property one day. Property tends to attract foreigners, blue collar workers on business. 
+Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen...The rooms are well appointed with the amenities you need plus kitchenette. Nothing fancy here but adequate. Once in, you notice as many as 9 items that need repair. They try to accommodate you, but you learn to live with some things beyond repair for lack of replacements. But it doesn't stop there! Don't waste your time reporting items that they feel are in good repair. It takes you a while to realize they have no intention of repairing that item. Reason: they are afraid you'll cost them money so they feign interest with feeble attempts to address the problem, when in reality, they don't want to discuss it with you. They'd rather make you the problem, and it goes downhill from there, to the point of subtle harrassment and bullying. Meantime, they'll make feeble attempts to solve the problem, when the goal is to discredit you so you are induced to leave the property early while they take no responsibility for property management. This is wholesale irresponsibility and unaccountabilityReasonably quiet, but 3 fire alarms sounded, one at 12:10 AM in the 10 days I stayed.There were no fires and no explanation about why the alarms were pulled.You get what you pay for: 3 police cars were at the property one day. Property tends to attract foreigners, blue collar workers on business. Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen it for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r452788321-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>452788321</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>noisy and unprofessional staff</t>
+  </si>
+  <si>
+    <t>where is the lobby for the hotel? staff are not polite and doesn't want to answer the questions . the rooms are ok and parking has limited spaces. the internet speed needs to improved. it is very slow and not worth the pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>where is the lobby for the hotel? staff are not polite and doesn't want to answer the questions . the rooms are ok and parking has limited spaces. the internet speed needs to improved. it is very slow and not worth the pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r443805374-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>443805374</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>worst experience</t>
+  </si>
+  <si>
+    <t>We stayed there only one night.  The kitchen did not have ANY utensils, plates, cups, coffee maker, ...  and when I called the front desk, she said she would gather things and bring them up, but after 40 minutes, we had to go to the front desk to pick up necessities. There was only one nightstand, so I did not know where to put my book, glasses, ... In the morning there was no hot water and this was SO unacceptable.We counted on the reputation of the Extended Living places, and next time we would make sure whom are the management before making any reservations.REMOVE this hotel from your list.  DO NOT STAY THERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there only one night.  The kitchen did not have ANY utensils, plates, cups, coffee maker, ...  and when I called the front desk, she said she would gather things and bring them up, but after 40 minutes, we had to go to the front desk to pick up necessities. There was only one nightstand, so I did not know where to put my book, glasses, ... In the morning there was no hot water and this was SO unacceptable.We counted on the reputation of the Extended Living places, and next time we would make sure whom are the management before making any reservations.REMOVE this hotel from your list.  DO NOT STAY THERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r440937713-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>440937713</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>The Bathroom fan didn't do its job.  Had to take a bath with the door open to help keep the bathroom mirror free of steam.  Can't count how many spiders I killed during the stay. Grab and Go breakfast is a joke.  People walking in and out of the exit next to my room was 24hrs a day.  For an extended stay hotel only came with 4 hangers and when I went to the front desk they had none.  Internet went down for 24hrs one day. Refrigerator when running is loud and cabinets are the same style I had when I built my house in 1993.  Fire station right next door and if called out in the middle of the night I'm sure would wake up anyone.Plus side, walking distance to shopping and restaurants.  Had to stay here cause other hotel where other colleagues stayed for a meeting was full.  Next time won't come to the meeting if I cannot find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>The Bathroom fan didn't do its job.  Had to take a bath with the door open to help keep the bathroom mirror free of steam.  Can't count how many spiders I killed during the stay. Grab and Go breakfast is a joke.  People walking in and out of the exit next to my room was 24hrs a day.  For an extended stay hotel only came with 4 hangers and when I went to the front desk they had none.  Internet went down for 24hrs one day. Refrigerator when running is loud and cabinets are the same style I had when I built my house in 1993.  Fire station right next door and if called out in the middle of the night I'm sure would wake up anyone.Plus side, walking distance to shopping and restaurants.  Had to stay here cause other hotel where other colleagues stayed for a meeting was full.  Next time won't come to the meeting if I cannot find another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r439262974-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>439262974</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Disgusting room</t>
+  </si>
+  <si>
+    <t>My non-smoking room smelled like cigarette smoke, A/C was broken and was not repaired, dishes were provided by way of placing on front desk without option of assistance or delivery. All dishes and utensils were dirty and stinky, needed to rewash. Bed linens felt like sandpaper... slept in my clothes on top of bed for the week long duration of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>My non-smoking room smelled like cigarette smoke, A/C was broken and was not repaired, dishes were provided by way of placing on front desk without option of assistance or delivery. All dishes and utensils were dirty and stinky, needed to rewash. Bed linens felt like sandpaper... slept in my clothes on top of bed for the week long duration of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r435950828-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>435950828</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Good for a night</t>
+  </si>
+  <si>
+    <t>I got this hotel as a express deal from priceline. Location and parking are good. Rooms are spacious, have fridge, microwave and the front desk can provide silverware and other stuff that you need for kitchen. Internet speed is fine. Room and bathroom were clean. The only complaint is that we got a non-smoking room and definitely somebody was smoking there before. Breakfast is very basic: you can grab coffee, some granola bars, muffins, and oatmeal. I would recommend for a quick stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>I got this hotel as a express deal from priceline. Location and parking are good. Rooms are spacious, have fridge, microwave and the front desk can provide silverware and other stuff that you need for kitchen. Internet speed is fine. Room and bathroom were clean. The only complaint is that we got a non-smoking room and definitely somebody was smoking there before. Breakfast is very basic: you can grab coffee, some granola bars, muffins, and oatmeal. I would recommend for a quick stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r421566178-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>421566178</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs. There's a reason why the rates are cheap.</t>
+  </si>
+  <si>
+    <t>I visited for an overnight stay. When I arrived, my room wasn't ready so I was asked to come back after an hour. When I returned, I was taken to my room. I noticed the light switch in the bathroom didn't work at all so I called the front desk. The lady came to my room and realized it wasn't just the bulbs that needed to be replaced, and there was a problem with the switch, altogether. So she asked me to stay in the room for about 10-15 minutes while she tries to find a new room for me. 
+After waiting for 25 minutes, I went back to the front desk with all of my suitcase and asked what the status was or if they would take a refund. I noticed that the original front desk receptionist wasn't there, and there were two others. One of them looked to be the shift manager. She said she would approve a refund or I can switch to an upgraded room. Because of my schedule (I needed to head out to a wedding), I accepted an upgrade for a "deluxe room" with a king-sized bed. 
+When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before...I visited for an overnight stay. When I arrived, my room wasn't ready so I was asked to come back after an hour. When I returned, I was taken to my room. I noticed the light switch in the bathroom didn't work at all so I called the front desk. The lady came to my room and realized it wasn't just the bulbs that needed to be replaced, and there was a problem with the switch, altogether. So she asked me to stay in the room for about 10-15 minutes while she tries to find a new room for me. After waiting for 25 minutes, I went back to the front desk with all of my suitcase and asked what the status was or if they would take a refund. I noticed that the original front desk receptionist wasn't there, and there were two others. One of them looked to be the shift manager. She said she would approve a refund or I can switch to an upgraded room. Because of my schedule (I needed to head out to a wedding), I accepted an upgrade for a "deluxe room" with a king-sized bed. When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before me had used the toilet, which wasn't cleaned by housekeeping. I then noticed urine stains on the toilet rim. When I lifted the toilet seat (with my foot), there were 3 strands of "hair". Disgusting.I called the front desk again, and they sent housekeeping to come. A nice lady came about 5 minutes later, and she was appalled when she saw the toilet. She immediately called the front desk to confirm that the toilet was not cleaned. She apologized to me, and I felt horrible that she had to clean the mess.Considering that the toilet wasn't cleaned, I wasn't sure what actually was cleaned. So that night, I just slept on the side of the bed on a layer of towels without the blanket. I packed my bags at 6am and left the hotel as soon as possible to head out to the airport.The location was nice as it was close to restaurants, and there's a large shopping mall across Hawthorne. The amenities are poor and lacking. The "breakfast" area was just a table with some coffee and cereal bars.Sure, the price is nice. However, there is a reason for it. I will not stay at another Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2016</t>
+  </si>
+  <si>
+    <t>I visited for an overnight stay. When I arrived, my room wasn't ready so I was asked to come back after an hour. When I returned, I was taken to my room. I noticed the light switch in the bathroom didn't work at all so I called the front desk. The lady came to my room and realized it wasn't just the bulbs that needed to be replaced, and there was a problem with the switch, altogether. So she asked me to stay in the room for about 10-15 minutes while she tries to find a new room for me. 
+After waiting for 25 minutes, I went back to the front desk with all of my suitcase and asked what the status was or if they would take a refund. I noticed that the original front desk receptionist wasn't there, and there were two others. One of them looked to be the shift manager. She said she would approve a refund or I can switch to an upgraded room. Because of my schedule (I needed to head out to a wedding), I accepted an upgrade for a "deluxe room" with a king-sized bed. 
+When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before...I visited for an overnight stay. When I arrived, my room wasn't ready so I was asked to come back after an hour. When I returned, I was taken to my room. I noticed the light switch in the bathroom didn't work at all so I called the front desk. The lady came to my room and realized it wasn't just the bulbs that needed to be replaced, and there was a problem with the switch, altogether. So she asked me to stay in the room for about 10-15 minutes while she tries to find a new room for me. After waiting for 25 minutes, I went back to the front desk with all of my suitcase and asked what the status was or if they would take a refund. I noticed that the original front desk receptionist wasn't there, and there were two others. One of them looked to be the shift manager. She said she would approve a refund or I can switch to an upgraded room. Because of my schedule (I needed to head out to a wedding), I accepted an upgrade for a "deluxe room" with a king-sized bed. When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before me had used the toilet, which wasn't cleaned by housekeeping. I then noticed urine stains on the toilet rim. When I lifted the toilet seat (with my foot), there were 3 strands of "hair". Disgusting.I called the front desk again, and they sent housekeeping to come. A nice lady came about 5 minutes later, and she was appalled when she saw the toilet. She immediately called the front desk to confirm that the toilet was not cleaned. She apologized to me, and I felt horrible that she had to clean the mess.Considering that the toilet wasn't cleaned, I wasn't sure what actually was cleaned. So that night, I just slept on the side of the bed on a layer of towels without the blanket. I packed my bags at 6am and left the hotel as soon as possible to head out to the airport.The location was nice as it was close to restaurants, and there's a large shopping mall across Hawthorne. The amenities are poor and lacking. The "breakfast" area was just a table with some coffee and cereal bars.Sure, the price is nice. However, there is a reason for it. I will not stay at another Extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r419955451-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>419955451</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Stayed for 6 days for business.  The location is very good.  There is a shopping mall and many restaurants nearby.  Breakfast is a very light pick'n go type.  Felt bit expensive with the service.  ビジネスで6日間宿泊しました。ホテルの立地は非常に良いです。ショッピングモールも近くにありますし、レストランもたくさん近所にあります。朝食はロビー脇にコーヒー、マフィンとスナックバーのみの、自分でほしい分を部屋に持って行って食べる簡単なもの。サービスの割に料金が高いと感じました。MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 6 days for business.  The location is very good.  There is a shopping mall and many restaurants nearby.  Breakfast is a very light pick'n go type.  Felt bit expensive with the service.  ビジネスで6日間宿泊しました。ホテルの立地は非常に良いです。ショッピングモールも近くにありますし、レストランもたくさん近所にあります。朝食はロビー脇にコーヒー、マフィンとスナックバーのみの、自分でほしい分を部屋に持って行って食べる簡単なもの。サービスの割に料金が高いと感じました。More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r417724486-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>417724486</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Average...</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights, musty smell, thank goodness we were able to open window for fresh air.  Kitchenette, with microwave but no utebsils, no coffee machine, no hairdryer.  Breakfast was miserable, expected to eat your porridge oats out of a cup, sweetened milh and vanilla milk for coffee and tea.  What's wrong with normal milk, does everything have to be unhealthy??MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights, musty smell, thank goodness we were able to open window for fresh air.  Kitchenette, with microwave but no utebsils, no coffee machine, no hairdryer.  Breakfast was miserable, expected to eat your porridge oats out of a cup, sweetened milh and vanilla milk for coffee and tea.  What's wrong with normal milk, does everything have to be unhealthy??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r405269230-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>405269230</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Value for Money</t>
+  </si>
+  <si>
+    <t>The room was good sized; its kind of a service apartment with microwave, fridge and utensils (on demand). In fact everything incl. hair-dryer is on demand here. No full fledged Breakfast - Just oats, fruits, coffee / hot chocolate, cakes, energy bars. There is no house-keeping unless you ask them (i think)Its close to the Del Amo mall and there is also a Wal Mart, Sears,,Toys-R-Us and some other shops within a 10minute walking radius.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded August 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2016</t>
+  </si>
+  <si>
+    <t>The room was good sized; its kind of a service apartment with microwave, fridge and utensils (on demand). In fact everything incl. hair-dryer is on demand here. No full fledged Breakfast - Just oats, fruits, coffee / hot chocolate, cakes, energy bars. There is no house-keeping unless you ask them (i think)Its close to the Del Amo mall and there is also a Wal Mart, Sears,,Toys-R-Us and some other shops within a 10minute walking radius.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r402185004-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>402185004</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Not worth saving a few bucks</t>
+  </si>
+  <si>
+    <t>We were up in Torrance last weekend and I couldn't see spending $200+ for a hotel room so I booked a room at Extended Stay America.  Never again.  The appearance of the outside of the facility far surpassed the condition of the inside.  Upon check-in I was informed that the hotel was booked solid.  We were given a nonsmoking room on the first floor.  I was immediately hit with the smell of stale cigarette smoke and musty carpets when I opened the door to our room and the laminate floor in the kitchen appeared to be sticky or had a build-up of sticky residue.  I told my daughter, "do not walk on the floor without your shoes on."  Luckily I had a can of Febreeze in my toiletry bag.  I turned the air conditioner on at full blast and proceeded to exterminate the room with Febreeze.  In my opinion, the inside of the facility could use a total renovation.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>We were up in Torrance last weekend and I couldn't see spending $200+ for a hotel room so I booked a room at Extended Stay America.  Never again.  The appearance of the outside of the facility far surpassed the condition of the inside.  Upon check-in I was informed that the hotel was booked solid.  We were given a nonsmoking room on the first floor.  I was immediately hit with the smell of stale cigarette smoke and musty carpets when I opened the door to our room and the laminate floor in the kitchen appeared to be sticky or had a build-up of sticky residue.  I told my daughter, "do not walk on the floor without your shoes on."  Luckily I had a can of Febreeze in my toiletry bag.  I turned the air conditioner on at full blast and proceeded to exterminate the room with Febreeze.  In my opinion, the inside of the facility could use a total renovation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r391876027-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>391876027</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Unless you get a really good deal, look elsewhere.</t>
+  </si>
+  <si>
+    <t>This place was a bit unusual.  Firstly, there is no 24 hour front desk.  Its only available from 6:30am until 10:30pm.  Outside of these times you pick up the house phone mounted in the entry vestibule and dial a number.  However, the phone doesn't work.  Not even a dial tone.  So, we wound up calling the main number.  After about 15 minutes a staff person presented herself and presented up with key cards.  We were placed into Room 347 on the third floor.  The room contained a full kitchen, but no utensils or plates.glasses readily available.  They have to be requested.  The kitchen area was larger than the the sleeping area, which consisted of a bed, chest of drawers (TV on top) and a small desk.  No actual living area with couch.  Bags of garbage are left in the hallways and very unsiightely.  The good: parking is free and onsite, proximity to shopping is ideal, relatively convenient to LAX if you have a vehicle.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>This place was a bit unusual.  Firstly, there is no 24 hour front desk.  Its only available from 6:30am until 10:30pm.  Outside of these times you pick up the house phone mounted in the entry vestibule and dial a number.  However, the phone doesn't work.  Not even a dial tone.  So, we wound up calling the main number.  After about 15 minutes a staff person presented herself and presented up with key cards.  We were placed into Room 347 on the third floor.  The room contained a full kitchen, but no utensils or plates.glasses readily available.  They have to be requested.  The kitchen area was larger than the the sleeping area, which consisted of a bed, chest of drawers (TV on top) and a small desk.  No actual living area with couch.  Bags of garbage are left in the hallways and very unsiightely.  The good: parking is free and onsite, proximity to shopping is ideal, relatively convenient to LAX if you have a vehicle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r372715809-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>372715809</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Nice place, but needs deodorizer</t>
+  </si>
+  <si>
+    <t>I really like this place and it is local to everything. The only thing is that it needs some deodorizer in the hall. When I was there the hall on the second floor really smelled bad. But, the room was great. Clean, nice beds, nice clean bathroom.The only problem I've ever had with Extended Stays are their reservations. You can't confirm your reservation without a lot of questions that they say are for your own good. And, even after you give them the information they want to give you a hard time. Very bad customer relations. I have one more stay with them and then will try to find some place else. I don't need the drama they give you just to confirm your reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded May 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2016</t>
+  </si>
+  <si>
+    <t>I really like this place and it is local to everything. The only thing is that it needs some deodorizer in the hall. When I was there the hall on the second floor really smelled bad. But, the room was great. Clean, nice beds, nice clean bathroom.The only problem I've ever had with Extended Stays are their reservations. You can't confirm your reservation without a lot of questions that they say are for your own good. And, even after you give them the information they want to give you a hard time. Very bad customer relations. I have one more stay with them and then will try to find some place else. I don't need the drama they give you just to confirm your reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r336305674-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>336305674</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Beware, especially if you have allergies</t>
+  </si>
+  <si>
+    <t>Other reviews of this place are right in saying it is smelly.  I was on the third floor, and although all of the rooms I saw were designated nonsmoking, the hallway reeked of smoke.  It must be in the air ducts.  My room smelled both smoky and musty, and at one point I discovered the backs of the curtains were coated with mildew, which accounts for the mustiness. I would have walked if I had not been required to pay for my entire stay up front, this must be why they have this policy.  The bed was hard and the pillows and covers were thin. When I opened a bath towel to dry off, a long black hair fell out into the tub.  The staff is nice enough, it's not their fault, but I would never stay here again. This could cause a serious health problem for someone with allergies.  I'd recommend the Doubletree right next door, or the Marriott across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Other reviews of this place are right in saying it is smelly.  I was on the third floor, and although all of the rooms I saw were designated nonsmoking, the hallway reeked of smoke.  It must be in the air ducts.  My room smelled both smoky and musty, and at one point I discovered the backs of the curtains were coated with mildew, which accounts for the mustiness. I would have walked if I had not been required to pay for my entire stay up front, this must be why they have this policy.  The bed was hard and the pillows and covers were thin. When I opened a bath towel to dry off, a long black hair fell out into the tub.  The staff is nice enough, it's not their fault, but I would never stay here again. This could cause a serious health problem for someone with allergies.  I'd recommend the Doubletree right next door, or the Marriott across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r329719968-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>329719968</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Would not stay here again.</t>
+  </si>
+  <si>
+    <t>This was our first experience at an Extended Stay and we would not stay there again.  Linens were very cheap, TV was too small with poor reception.  No hot water in bathroom sink the first day, no regular creamer (only sweetened), dated facility.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r292751822-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>292751822</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>"excellent service"</t>
+  </si>
+  <si>
+    <t>Pleased with our recent stay, great service, enjoyed our little kitchenette. The room was very quiet and comfortable. The boys only complaint was no swimming pool but we were only a few minutes from the beach. So all was good!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r291922165-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>291922165</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Clean but don't count on breakfast</t>
+  </si>
+  <si>
+    <t>I needed an economical place to stay outside and south of the direct LAX vicinity.  This is at a mall center and near all conveniences.  The room was tidy - make sure to remember to request kitchen utensils before the end of the night.  I always expect there to be a coffee maker in my room or I feel cheated, so I felt cheated.  Breakfast did consist of food products  - prepackaged high calorie muffin, single pack of crunchy granola bar, and apple &amp; orange for fruit.  The rate may fluctuate widely at this property, but anything over about $95 (king bed) would be high IMO.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r285986936-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>285986936</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Smelly, old,missing items,and overpriced</t>
+  </si>
+  <si>
+    <t>If you are a business man/woman or family don't stay here . The price we ended up paying for our room was $169.99 not including the tax,not worth it. Price should've been $80. When we arrived, the smell of week old oyster sauce permeated the hallways of the second floor. Our room was  missing garbage cans for  the kitchenette and the restroom, old carpet, old filthy dingy curtains it was very dusty. Some lamp lights weren't working. No coffee maker I had to go downstairs and ask for it and the pot had these white stuff in it I decided not to use it. The blow dryer didn't work unless  you continuously push the button using  your left finger , but I eventually figured out a way to keep it on by lodging a piece a paper in there. Our room smelled like week old Asian Hoisin sauce and cinnamon air refreshener mixed in. My clothes and my hair smelled like it when I left the room. The next night when I asked the maid  for towels she said she ran out of towels because it was late at night and she'll have it for me the next morning when the delivery comes at 6am. She was able to find me that same night though . Best thing I can say is that house keeping staff , the front Desk Marisa and Arlene were very nice to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are a business man/woman or family don't stay here . The price we ended up paying for our room was $169.99 not including the tax,not worth it. Price should've been $80. When we arrived, the smell of week old oyster sauce permeated the hallways of the second floor. Our room was  missing garbage cans for  the kitchenette and the restroom, old carpet, old filthy dingy curtains it was very dusty. Some lamp lights weren't working. No coffee maker I had to go downstairs and ask for it and the pot had these white stuff in it I decided not to use it. The blow dryer didn't work unless  you continuously push the button using  your left finger , but I eventually figured out a way to keep it on by lodging a piece a paper in there. Our room smelled like week old Asian Hoisin sauce and cinnamon air refreshener mixed in. My clothes and my hair smelled like it when I left the room. The next night when I asked the maid  for towels she said she ran out of towels because it was late at night and she'll have it for me the next morning when the delivery comes at 6am. She was able to find me that same night though . Best thing I can say is that house keeping staff , the front Desk Marisa and Arlene were very nice to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r283992726-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>283992726</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>not fit for purpose</t>
+  </si>
+  <si>
+    <t>BOTTOM LINE
+At $130/night, this hotel is way overpriced for what you get. The do-it-yourself policy and nasty, unaccommodating staff already had me looking to stay elsewhere during my stay. The prepayment upon check-in policy means they’ve got you by the balls and no early check out allowed for dissatisfaction. As I looked for alternative lodging even though I could not check out early, I discovered a number of other hotels in the same area in the $90-100/night range that could not have been worse and which were probably much better.  This hotel is worth no more than $75/night and is masquerading as something better.
+NASTY STAFF
+From the desk clerks to the Assistant Manager and Manager, all staff here have been trained as masters in “The Art of No”. Anything you want is met with an immediate “no” or “if we can do it”. And then they might try to do what you asked. For example, I asked for an extra blanket. The answer was “if we have one, since some of the laundry wasn’t done today and we’re backed up.” Not my problem you didn’t get your laundry done on time. One morning I stopped by the front desk and a couple was having a heated discussion with the manager who apparently reneged on a promise made during their previous stay. Apparently, I wasn’t the only one who found management here less than accommodating.
+I was repeatedly told...BOTTOM LINEAt $130/night, this hotel is way overpriced for what you get. The do-it-yourself policy and nasty, unaccommodating staff already had me looking to stay elsewhere during my stay. The prepayment upon check-in policy means they’ve got you by the balls and no early check out allowed for dissatisfaction. As I looked for alternative lodging even though I could not check out early, I discovered a number of other hotels in the same area in the $90-100/night range that could not have been worse and which were probably much better.  This hotel is worth no more than $75/night and is masquerading as something better.NASTY STAFFFrom the desk clerks to the Assistant Manager and Manager, all staff here have been trained as masters in “The Art of No”. Anything you want is met with an immediate “no” or “if we can do it”. And then they might try to do what you asked. For example, I asked for an extra blanket. The answer was “if we have one, since some of the laundry wasn’t done today and we’re backed up.” Not my problem you didn’t get your laundry done on time. One morning I stopped by the front desk and a couple was having a heated discussion with the manager who apparently reneged on a promise made during their previous stay. Apparently, I wasn’t the only one who found management here less than accommodating.I was repeatedly told that the hotel was sold out, which is why they could not honor my request for a quiet room (which was put into the original reservation more than a week in advance of my arrival). I worked for hotels for 3 years and there is no way this hotel was sold out like they kept offering as an excuse. I suspect they took some rooms off inventory, either because something needed fixing in the room or they didn’t have enough staff to service the entire hotel.The do it yourself policy means that if you want more towels or pillows, an extra blanket, cutlery, dishes, cookware, etc. you have to go to the front desk to get it or check it out. Want to get rid of your garbage? Do it yourself. Want to make your bed? Do it yourself (or you can pay additional for each housekeeping visit you request). Sure, that's part of the "extended stay" game, but I couldn't help but be offended by the "don't bother us" approach.California is currently experiencing its worst drought ever. There is an amusing sign hung in the bathroom (see picture) inviting you to save your towels and bed sheets for each cleaning (only once weekly). That’s right, you can save the hotel even more money by not having your rank towels and sheets changed – ever.DIRTY DETAILSThe hotel itself appears nice and clean, but on a deeper look, you notice serious lack of attention to detail. For example, human hair lodged in the bathtub drain. When entering the first room they put me in, there was dried cheese or something similar on the kitchen counter. I checked out cutlery from the front desk and a knife had dried jam on it.NOT FIT FOR PURPOSESupposedly I was in a quiet room (332). Have a look (see photo) at the gap of about ½ inch thick between the edge of the door and the frame. The picture was taken in the hallway looking at the room’s door with the light on inside the room. You could hear everything in the hallway, not to mention lack of complete privacy.The Wifi not suitable for business use. It was simply too slow and kept dropping out. A paid (of course) upgrade option is available that presumably ushers your wifi needs to the front of the line. I decided to decline and not throw good money after bad. So much for the free Wifi.I was in 2 rooms during my stay. In each bathroom, the fluorescent light had a strobe effect when first turned on. This means that for the first 30 seconds or so, the light flickers terribly, which is very disturbing. If you have a medical condition that prevents you from viewing strobe lighting, do not stay at this hotel. I ended up keeping the bathroom light on 24/7 because it was so annoying.The air conditioner in the first room was great. However, in the second room, it barely worked. I kept the A/C on its lowest setting in room #2 and it never got as cold as it did in the first room. The bed was hard as a rock. If you like hard beds, this hotel is for you.In the first room, the hair dryer experienced a short after it glowed red-orange inside for a minute (I was expecting an explosion actually). I reported this to the front desk and doubt they replaced it. In the second room, there was no hair dryer attached to the wall, but they did have one for me to check out.The “grab and go breakfast” consists of instant oatmeal, granola bars, heavily bruised fruit and pre-packaged muffin-like products. The coffee-like product was undrinkable. Luckily there were a couple grocery stores not too far away where I could get some real food.The toilet took multiple flushes to clear fully and on one occasion, I had to go to the reception to get a plunger. Then I was informed that all rooms have plungers in them.  Of course they do because they’re obviously needed on a regular basis.The hallways had a strong smell of cigarette smoke. I thought all hotels were supposed to be smoke-free?MoreShow less</t>
+  </si>
+  <si>
+    <t>BOTTOM LINE
+At $130/night, this hotel is way overpriced for what you get. The do-it-yourself policy and nasty, unaccommodating staff already had me looking to stay elsewhere during my stay. The prepayment upon check-in policy means they’ve got you by the balls and no early check out allowed for dissatisfaction. As I looked for alternative lodging even though I could not check out early, I discovered a number of other hotels in the same area in the $90-100/night range that could not have been worse and which were probably much better.  This hotel is worth no more than $75/night and is masquerading as something better.
+NASTY STAFF
+From the desk clerks to the Assistant Manager and Manager, all staff here have been trained as masters in “The Art of No”. Anything you want is met with an immediate “no” or “if we can do it”. And then they might try to do what you asked. For example, I asked for an extra blanket. The answer was “if we have one, since some of the laundry wasn’t done today and we’re backed up.” Not my problem you didn’t get your laundry done on time. One morning I stopped by the front desk and a couple was having a heated discussion with the manager who apparently reneged on a promise made during their previous stay. Apparently, I wasn’t the only one who found management here less than accommodating.
+I was repeatedly told...BOTTOM LINEAt $130/night, this hotel is way overpriced for what you get. The do-it-yourself policy and nasty, unaccommodating staff already had me looking to stay elsewhere during my stay. The prepayment upon check-in policy means they’ve got you by the balls and no early check out allowed for dissatisfaction. As I looked for alternative lodging even though I could not check out early, I discovered a number of other hotels in the same area in the $90-100/night range that could not have been worse and which were probably much better.  This hotel is worth no more than $75/night and is masquerading as something better.NASTY STAFFFrom the desk clerks to the Assistant Manager and Manager, all staff here have been trained as masters in “The Art of No”. Anything you want is met with an immediate “no” or “if we can do it”. And then they might try to do what you asked. For example, I asked for an extra blanket. The answer was “if we have one, since some of the laundry wasn’t done today and we’re backed up.” Not my problem you didn’t get your laundry done on time. One morning I stopped by the front desk and a couple was having a heated discussion with the manager who apparently reneged on a promise made during their previous stay. Apparently, I wasn’t the only one who found management here less than accommodating.I was repeatedly told that the hotel was sold out, which is why they could not honor my request for a quiet room (which was put into the original reservation more than a week in advance of my arrival). I worked for hotels for 3 years and there is no way this hotel was sold out like they kept offering as an excuse. I suspect they took some rooms off inventory, either because something needed fixing in the room or they didn’t have enough staff to service the entire hotel.The do it yourself policy means that if you want more towels or pillows, an extra blanket, cutlery, dishes, cookware, etc. you have to go to the front desk to get it or check it out. Want to get rid of your garbage? Do it yourself. Want to make your bed? Do it yourself (or you can pay additional for each housekeeping visit you request). Sure, that's part of the "extended stay" game, but I couldn't help but be offended by the "don't bother us" approach.California is currently experiencing its worst drought ever. There is an amusing sign hung in the bathroom (see picture) inviting you to save your towels and bed sheets for each cleaning (only once weekly). That’s right, you can save the hotel even more money by not having your rank towels and sheets changed – ever.DIRTY DETAILSThe hotel itself appears nice and clean, but on a deeper look, you notice serious lack of attention to detail. For example, human hair lodged in the bathtub drain. When entering the first room they put me in, there was dried cheese or something similar on the kitchen counter. I checked out cutlery from the front desk and a knife had dried jam on it.NOT FIT FOR PURPOSESupposedly I was in a quiet room (332). Have a look (see photo) at the gap of about ½ inch thick between the edge of the door and the frame. The picture was taken in the hallway looking at the room’s door with the light on inside the room. You could hear everything in the hallway, not to mention lack of complete privacy.The Wifi not suitable for business use. It was simply too slow and kept dropping out. A paid (of course) upgrade option is available that presumably ushers your wifi needs to the front of the line. I decided to decline and not throw good money after bad. So much for the free Wifi.I was in 2 rooms during my stay. In each bathroom, the fluorescent light had a strobe effect when first turned on. This means that for the first 30 seconds or so, the light flickers terribly, which is very disturbing. If you have a medical condition that prevents you from viewing strobe lighting, do not stay at this hotel. I ended up keeping the bathroom light on 24/7 because it was so annoying.The air conditioner in the first room was great. However, in the second room, it barely worked. I kept the A/C on its lowest setting in room #2 and it never got as cold as it did in the first room. The bed was hard as a rock. If you like hard beds, this hotel is for you.In the first room, the hair dryer experienced a short after it glowed red-orange inside for a minute (I was expecting an explosion actually). I reported this to the front desk and doubt they replaced it. In the second room, there was no hair dryer attached to the wall, but they did have one for me to check out.The “grab and go breakfast” consists of instant oatmeal, granola bars, heavily bruised fruit and pre-packaged muffin-like products. The coffee-like product was undrinkable. Luckily there were a couple grocery stores not too far away where I could get some real food.The toilet took multiple flushes to clear fully and on one occasion, I had to go to the reception to get a plunger. Then I was informed that all rooms have plungers in them.  Of course they do because they’re obviously needed on a regular basis.The hallways had a strong smell of cigarette smoke. I thought all hotels were supposed to be smoke-free?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r282987376-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>282987376</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>wanted to like it</t>
+  </si>
+  <si>
+    <t>I know this city &amp; needed to stay only 1 night. Many places were booked so took a chance on the overall average to good reviews. The first room we went to had chipped paint, broken rangetop coils, dented refrigerator, bathroom door that would not close shut &amp; badly squeaking, rustling bed when you sat or moved on it. We were given a room change which wasn't cleaned or bed changed. Our 3 rd room was a nice size with a King bed (we had originally requested a queen -which appeared to be a double). The room was clean but the bed gave us both a sore back due to not being a decent quality. The air conditioner adjacent  to the wall  was at bed height. It would have given you a stiff neck &amp; been too cold on your arm. We had to have the window open all night which would have been fine were it not for a neighborhood dog left outside all night barking.We left early in the morning &amp; were glad to leave. The worst part of all was the reeking smell of smoke in the halls even with many rooms labeled No Smoking.The breakfast that is included is coffee or tea, a bowl of fruit to choose from (apple, banana,orange) &amp; a cold muffin in a plastic wrap or granola bar. Choose wisely.MoreShow less</t>
+  </si>
+  <si>
+    <t>I know this city &amp; needed to stay only 1 night. Many places were booked so took a chance on the overall average to good reviews. The first room we went to had chipped paint, broken rangetop coils, dented refrigerator, bathroom door that would not close shut &amp; badly squeaking, rustling bed when you sat or moved on it. We were given a room change which wasn't cleaned or bed changed. Our 3 rd room was a nice size with a King bed (we had originally requested a queen -which appeared to be a double). The room was clean but the bed gave us both a sore back due to not being a decent quality. The air conditioner adjacent  to the wall  was at bed height. It would have given you a stiff neck &amp; been too cold on your arm. We had to have the window open all night which would have been fine were it not for a neighborhood dog left outside all night barking.We left early in the morning &amp; were glad to leave. The worst part of all was the reeking smell of smoke in the halls even with many rooms labeled No Smoking.The breakfast that is included is coffee or tea, a bowl of fruit to choose from (apple, banana,orange) &amp; a cold muffin in a plastic wrap or granola bar. Choose wisely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r282768204-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>282768204</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Clean and a nice surprise</t>
+  </si>
+  <si>
+    <t>This is the first time we have stayed in an Extended Stay America hotel.  We were pleaslantly surprised.  Good Value and clean rooms.  Good location, across the road from a huge shopping Centre. Plenty of restaurants around.  The light breakfast is only muffins, porridge, fruit, bars</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r266594282-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>266594282</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>My favorite place</t>
+  </si>
+  <si>
+    <t>It is always  a great visit when I come to this location.  They have an awesome staff, it is clean, and it is in a great location.  It is my favorite place to stay in the area.  Plenty of  restaurants, shopping and activities are within walking distance.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r266114634-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>266114634</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Great temporary home</t>
+  </si>
+  <si>
+    <t>I moved to California from Ohio in January (2015) and stayed at the Extended stay for 2 months while searching for a permanent home for my family. This hotel is in a great location and it is accessible to everything. It was very clean. I like my privacy, so I just requested a vacuum and broom and I had my own cleaning supplies so I could keep the room tidy and maintain my privacy.The staff was extremely friendly and helpful. I never had any problems with anyone. There is a full refrigerator, a stove top, sink and dishes, cookware, silverware, dish drain, toaster, coffee maker and cutting board are all supplied upon request. There is free wifi. Also there is a grab and go breakfast, which consists of things like muffins and fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I moved to California from Ohio in January (2015) and stayed at the Extended stay for 2 months while searching for a permanent home for my family. This hotel is in a great location and it is accessible to everything. It was very clean. I like my privacy, so I just requested a vacuum and broom and I had my own cleaning supplies so I could keep the room tidy and maintain my privacy.The staff was extremely friendly and helpful. I never had any problems with anyone. There is a full refrigerator, a stove top, sink and dishes, cookware, silverware, dish drain, toaster, coffee maker and cutting board are all supplied upon request. There is free wifi. Also there is a grab and go breakfast, which consists of things like muffins and fruit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r262875066-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>262875066</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>The hotel is clean safe and located in a nice area .  All food and personal needs can be met and satisfied just minutes away.  The beach is close by.  My room was clean and spacious.  But having said that, the staff made all that even better.  They are great.  Thank you for all your service you provided me</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r246545839-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>246545839</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Some bad comments here but ok for me, 2nd Time staying.</t>
+  </si>
+  <si>
+    <t>That was my 2nd visit to the Extended Stay America in Torrance and despite some bad comments here, I can not really complain. The room I got was very clean and tidy (243). Staff was very friendly upon check-in. There was no one when I checked out (0500am) but got my receipt trough email. I will come again if price level remains the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>That was my 2nd visit to the Extended Stay America in Torrance and despite some bad comments here, I can not really complain. The room I got was very clean and tidy (243). Staff was very friendly upon check-in. There was no one when I checked out (0500am) but got my receipt trough email. I will come again if price level remains the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r237317482-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>237317482</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Perfect for Halloween - dark and creepy.</t>
+  </si>
+  <si>
+    <t>Where do I start?  The smelly rooms?  Dark hallways?  Random people milling around the parking lot?  Half-finished construction projects?  It was like a movie set for a horror film...but at $130/night, scarier.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r220547956-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>220547956</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>SMOKING</t>
+  </si>
+  <si>
+    <t>My company booked one night for me thru Expedia. I checked in at reception where there were two young ladies talking behind a computer who didn't bother to acknowledge my presence at their counter for a short while (no one else there). I said "hello" then one of them glanced up at me and said she'd be right with me. Not a very hospital welcoming! The other gal asked if I was checking in and then proceeded to look my reservation up in the computer and took the usual i.d. and credit card for incidentals and had me sign some paperwork, gave me my key and pointed to the elevator. 
+I got to my floor (3rd) and immediately was taken by the overwhelming smell of must and cigarette smoke. I walked down the corridor to my room, opened the door to an even filthier stench...the smell of cigarettes was overwhelming! There were several cigarette burns in the carpet and an ashtray on the counter. I realized they set me up in a "smoking" room, which I didn't realize were around any more.
+I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for...My company booked one night for me thru Expedia. I checked in at reception where there were two young ladies talking behind a computer who didn't bother to acknowledge my presence at their counter for a short while (no one else there). I said "hello" then one of them glanced up at me and said she'd be right with me. Not a very hospital welcoming! The other gal asked if I was checking in and then proceeded to look my reservation up in the computer and took the usual i.d. and credit card for incidentals and had me sign some paperwork, gave me my key and pointed to the elevator. I got to my floor (3rd) and immediately was taken by the overwhelming smell of must and cigarette smoke. I walked down the corridor to my room, opened the door to an even filthier stench...the smell of cigarettes was overwhelming! There were several cigarette burns in the carpet and an ashtray on the counter. I realized they set me up in a "smoking" room, which I didn't realize were around any more.I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for about 10 seconds and came back and said, "no, we cannot move you since your company booked you thru Expedia and ok'd the smoking room." She refused to move me! I have traveled a lot for business throughout the years and have stayed at various properties and have NEVER encountered a situation where they refused to move me when I have asked, which has only been a few times. Never have I been treated so rudely and as though my comfort and health was not important.Needless to say, I got my bag and left and found another accommodation not too far away which greeted me with a smile, got me checked in promptly and into a non-smoking room.My company didn't realize that they had actually booked a smoking room so they were able to cancel the reservation thru Expedia since Extended Stay was uncooperative in moving me.sI will NEVER use an Extended Stay America properties again. Let me add, they are inexpensive and not luxurious, which is fine for one night for business, but the room wasn't very clean, either. Toothpaste splattered on the mirror, dirty window which didn't open but a crack, stained and burned carpet, crumbs on the counter but worst of all, the horrible smell! That being said, stick to using Marriott Courtyards!!! I have stayed in many of them thru the years and have NEVER been treated so rudely and their accommodations and comfort put this place to shame!!!! There is one just a couple of miles from this location and price difference is negligible.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My company booked one night for me thru Expedia. I checked in at reception where there were two young ladies talking behind a computer who didn't bother to acknowledge my presence at their counter for a short while (no one else there). I said "hello" then one of them glanced up at me and said she'd be right with me. Not a very hospital welcoming! The other gal asked if I was checking in and then proceeded to look my reservation up in the computer and took the usual i.d. and credit card for incidentals and had me sign some paperwork, gave me my key and pointed to the elevator. 
+I got to my floor (3rd) and immediately was taken by the overwhelming smell of must and cigarette smoke. I walked down the corridor to my room, opened the door to an even filthier stench...the smell of cigarettes was overwhelming! There were several cigarette burns in the carpet and an ashtray on the counter. I realized they set me up in a "smoking" room, which I didn't realize were around any more.
+I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for...My company booked one night for me thru Expedia. I checked in at reception where there were two young ladies talking behind a computer who didn't bother to acknowledge my presence at their counter for a short while (no one else there). I said "hello" then one of them glanced up at me and said she'd be right with me. Not a very hospital welcoming! The other gal asked if I was checking in and then proceeded to look my reservation up in the computer and took the usual i.d. and credit card for incidentals and had me sign some paperwork, gave me my key and pointed to the elevator. I got to my floor (3rd) and immediately was taken by the overwhelming smell of must and cigarette smoke. I walked down the corridor to my room, opened the door to an even filthier stench...the smell of cigarettes was overwhelming! There were several cigarette burns in the carpet and an ashtray on the counter. I realized they set me up in a "smoking" room, which I didn't realize were around any more.I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for about 10 seconds and came back and said, "no, we cannot move you since your company booked you thru Expedia and ok'd the smoking room." She refused to move me! I have traveled a lot for business throughout the years and have stayed at various properties and have NEVER encountered a situation where they refused to move me when I have asked, which has only been a few times. Never have I been treated so rudely and as though my comfort and health was not important.Needless to say, I got my bag and left and found another accommodation not too far away which greeted me with a smile, got me checked in promptly and into a non-smoking room.My company didn't realize that they had actually booked a smoking room so they were able to cancel the reservation thru Expedia since Extended Stay was uncooperative in moving me.sI will NEVER use an Extended Stay America properties again. Let me add, they are inexpensive and not luxurious, which is fine for one night for business, but the room wasn't very clean, either. Toothpaste splattered on the mirror, dirty window which didn't open but a crack, stained and burned carpet, crumbs on the counter but worst of all, the horrible smell! That being said, stick to using Marriott Courtyards!!! I have stayed in many of them thru the years and have NEVER been treated so rudely and their accommodations and comfort put this place to shame!!!! There is one just a couple of miles from this location and price difference is negligible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r207759293-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>207759293</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel and renovated</t>
+  </si>
+  <si>
+    <t>We stayed there for one night while visiting beaches near by. Very nice and clean hotel, renovated one. very nice location, close to lot of grocery stores. near to beaches. staff was good and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed there for one night while visiting beaches near by. Very nice and clean hotel, renovated one. very nice location, close to lot of grocery stores. near to beaches. staff was good and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r201935454-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>201935454</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable place to stay</t>
+  </si>
+  <si>
+    <t>I had a great experience at this Extended Stay America. It was quiet, clean and the staff was very friendly and helpful. The location is great, a lot of choices to eat if you don't want to fix something in your room. The free parking is a great feature as well. The only they could improve upon is the beds, they are a bit stiff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>I had a great experience at this Extended Stay America. It was quiet, clean and the staff was very friendly and helpful. The location is great, a lot of choices to eat if you don't want to fix something in your room. The free parking is a great feature as well. The only they could improve upon is the beds, they are a bit stiff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r194158596-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>194158596</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>When My Nose That Doesn't Smell, Smells!</t>
+  </si>
+  <si>
+    <t>As a former smoker, I sort of killed my sense of smell.  For me to detect odors they need to be very strong.  That goes for good or bad.  The lobby area and 3rd floor of this building smelled like they regularly held AA meeting of a hundred or more smokers who then left their extinguished butts in a wet ash tray.  Fortunately, my room was on the non-smoking side of the hallway and provided relief.  That said, I still had to arrive and leave through the gagging smell of the building. The rest of the place was acceptable. The shower was awesome. I've not ever traveled where I didn't want to return to my room for a good nights sleep. It was like I had to walk through a dump to get there. Clean that (7@p up.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>As a former smoker, I sort of killed my sense of smell.  For me to detect odors they need to be very strong.  That goes for good or bad.  The lobby area and 3rd floor of this building smelled like they regularly held AA meeting of a hundred or more smokers who then left their extinguished butts in a wet ash tray.  Fortunately, my room was on the non-smoking side of the hallway and provided relief.  That said, I still had to arrive and leave through the gagging smell of the building. The rest of the place was acceptable. The shower was awesome. I've not ever traveled where I didn't want to return to my room for a good nights sleep. It was like I had to walk through a dump to get there. Clean that (7@p up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r183368474-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>183368474</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Acceptable, but small and older</t>
+  </si>
+  <si>
+    <t>Went here for a girls' weekend away.  For an ESA property, it was rather small. The room was small, the lobby practically non-existent and the breakfast room really cramped.  There is no pool or other amenities that you generally get with this chain.The room was clean and comfortable and the linens were good.  The kitchen was clean, however it was not stocked properly and we had to go to the front desk to obtain enough plates, etc for 3 people. Same with towels.  The hotel has been remodeled, but mostly just cosmetics.  The place still feels rather old and dark.  Probably won't stay here again. It met our needs for the weekend, but just barely.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Went here for a girls' weekend away.  For an ESA property, it was rather small. The room was small, the lobby practically non-existent and the breakfast room really cramped.  There is no pool or other amenities that you generally get with this chain.The room was clean and comfortable and the linens were good.  The kitchen was clean, however it was not stocked properly and we had to go to the front desk to obtain enough plates, etc for 3 people. Same with towels.  The hotel has been remodeled, but mostly just cosmetics.  The place still feels rather old and dark.  Probably won't stay here again. It met our needs for the weekend, but just barely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r182571338-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>182571338</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Convienent to Del Amo mall</t>
+  </si>
+  <si>
+    <t>The hotel could use vending machines for snacks.yes, you can go to the store and buy them, but if you want something late at nite, you're SOL. There is a sign by a back door to the smoking area,  where not everyone will see it, that states the hotel has cancer causing elements in the hotel.The coffee is ok, a little weak for my taste. Breakfast consists of apples, oranges,  packaged muffins and breakfast bars. You have to ask for extra coffee and sugar/sweetner. Depending on who's working the desk, you may get a roll of the eyes.The coffeemakers leave alot to be desired. They leak as much on the counter as you get in the 4 oz. cup. Bring paper towels. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel could use vending machines for snacks.yes, you can go to the store and buy them, but if you want something late at nite, you're SOL. There is a sign by a back door to the smoking area,  where not everyone will see it, that states the hotel has cancer causing elements in the hotel.The coffee is ok, a little weak for my taste. Breakfast consists of apples, oranges,  packaged muffins and breakfast bars. You have to ask for extra coffee and sugar/sweetner. Depending on who's working the desk, you may get a roll of the eyes.The coffeemakers leave alot to be desired. They leak as much on the counter as you get in the 4 oz. cup. Bring paper towels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r182288603-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>182288603</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Wish I Could've Stayed Longer</t>
+  </si>
+  <si>
+    <t>We spent two weeks in LA to watch the baseball playoffs.  We've stayed at Extended Stay locations in the past and I was shopping around for one for this trip, but was steered away by some of the negative reviews that came up.  We had never stayed at the Del Amo Circle location and I was curious about it.  But we ended up staying at a Best Western Plus closer to Dodger Stadium that turned out to be a disappointment.  When we needed to extend for two more days and the Best Western was sold out, I jumped at the chance to stay at Del Amo Circle.  I must say the hotel has a very modern feel and is well managed and in a nice area of Torrance.  The room was very comfortable and appointed nicely.  I would definitely stay again and recommend this location for families and couples who like peace and quiet and want the comforts of being at home in your hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We spent two weeks in LA to watch the baseball playoffs.  We've stayed at Extended Stay locations in the past and I was shopping around for one for this trip, but was steered away by some of the negative reviews that came up.  We had never stayed at the Del Amo Circle location and I was curious about it.  But we ended up staying at a Best Western Plus closer to Dodger Stadium that turned out to be a disappointment.  When we needed to extend for two more days and the Best Western was sold out, I jumped at the chance to stay at Del Amo Circle.  I must say the hotel has a very modern feel and is well managed and in a nice area of Torrance.  The room was very comfortable and appointed nicely.  I would definitely stay again and recommend this location for families and couples who like peace and quiet and want the comforts of being at home in your hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r177593765-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>177593765</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Ok for Torrance</t>
+  </si>
+  <si>
+    <t>I've stayed here the last couple of times. Nice clean room with decent wife and lots of cable channels. Good locations since It is not too far from the beaches.But only thing I didn't get is that I extended my stay for a day and lost my smartphone charger after I returned to the room that night after it has been cleaned. Gladly I didn't leave my laptop or valuables. I've always lost stuff in California hotels and never get it back. Just caution people to check out and then check in</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r176464860-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>176464860</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay Torrance - Very Bad Experience</t>
+  </si>
+  <si>
+    <t>Very Poor Hotel.It stinks with cigarette smoke. No breakfast. other hotels provide good  breakfast with similar rate.internet was slow.kitchen facility is very bad. No house keeping.I'll never visit again and never recommend this to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r168047344-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>168047344</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Mr Robert Penten</t>
+  </si>
+  <si>
+    <t>Stayed the last 7 days in USA at this hotel.wish we had found it sooner. Rooms large enough. Good shower and bathroom, modern flat screen TV. Great kitchen area, large fridge freezer, microwave, toaster coffee machine. On ground floor is guest wash and driers and Each room has iron and board. When towels need changing place soiled ones in service basket near lift. Get fresh from ones reception. Place located next to major routes around city, if you want to chill out from driving you can get local bus direct to Redondo beach for a $1. Great bars and eating places with walking distance so no need to drink and drive.The grab and go breakfast is addiquate good coffee some fruit, and breakfast bars to munch on, but hey Denny's is just across Hawthorne blvd. all in all great place recommend and we will use again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Stayed the last 7 days in USA at this hotel.wish we had found it sooner. Rooms large enough. Good shower and bathroom, modern flat screen TV. Great kitchen area, large fridge freezer, microwave, toaster coffee machine. On ground floor is guest wash and driers and Each room has iron and board. When towels need changing place soiled ones in service basket near lift. Get fresh from ones reception. Place located next to major routes around city, if you want to chill out from driving you can get local bus direct to Redondo beach for a $1. Great bars and eating places with walking distance so no need to drink and drive.The grab and go breakfast is addiquate good coffee some fruit, and breakfast bars to munch on, but hey Denny's is just across Hawthorne blvd. all in all great place recommend and we will use again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r157140192-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>157140192</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Nice and safe</t>
+  </si>
+  <si>
+    <t>I live in the area and we had to come to this hotel due to termite extermination being done in our building. The room was clean, the bed was comfortable and it is one of the safest areas in Torrance. The hallways need new carpeting but I'm not sleeping in the hallway. Continental breakfast was ok, nothing great just oatmeal packets, Otis spunkmeyers muffins, fresh fruit, coffee and tea. If you are looking for a full service hotel, go somewhere else, but if its a place to sleep and watch some tv, this is the place. Del amo mall is one block away and restaurant row with a souplantation, red lobster, elephant bar, Starbucks, bev mo, the counter and bagel shop are very close by. True, no pans and only a few plates. Also no detergent to wash the dishes or towels to dry them, so I didn't bother eating on their items. For it being an extended stay place, I expected these items by default. I think they need to work on some things, but they rely on a lot of non picky people to stay here. If they up'd their game just a little bit, it could be a much better hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>I live in the area and we had to come to this hotel due to termite extermination being done in our building. The room was clean, the bed was comfortable and it is one of the safest areas in Torrance. The hallways need new carpeting but I'm not sleeping in the hallway. Continental breakfast was ok, nothing great just oatmeal packets, Otis spunkmeyers muffins, fresh fruit, coffee and tea. If you are looking for a full service hotel, go somewhere else, but if its a place to sleep and watch some tv, this is the place. Del amo mall is one block away and restaurant row with a souplantation, red lobster, elephant bar, Starbucks, bev mo, the counter and bagel shop are very close by. True, no pans and only a few plates. Also no detergent to wash the dishes or towels to dry them, so I didn't bother eating on their items. For it being an extended stay place, I expected these items by default. I think they need to work on some things, but they rely on a lot of non picky people to stay here. If they up'd their game just a little bit, it could be a much better hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r156259046-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>156259046</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Spend the extra money</t>
+  </si>
+  <si>
+    <t>We had a lapse between moving out of our apt in San Diego before we could move in to our new one in Los Angeles.  After spending five days here we couldn't be happier to leave.  I've stayed at many Extended Stays and the beauty of them is having home amenities.  This place provides NOTHING.  Yea, there was a stove but no pans or silverware so what's the point?  There are no housekeeping services at all.  Never once even got clean towels.  The quality of the bedding, towels, soap, everything only rivals what I would imagine you get at homeless shelter. I once walked out of the room at night forgetting my key and when I went to the front desk it was closed for the night.  Really?!?!? Spend the extra and go to a real hotel.  I wish we had.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>We had a lapse between moving out of our apt in San Diego before we could move in to our new one in Los Angeles.  After spending five days here we couldn't be happier to leave.  I've stayed at many Extended Stays and the beauty of them is having home amenities.  This place provides NOTHING.  Yea, there was a stove but no pans or silverware so what's the point?  There are no housekeeping services at all.  Never once even got clean towels.  The quality of the bedding, towels, soap, everything only rivals what I would imagine you get at homeless shelter. I once walked out of the room at night forgetting my key and when I went to the front desk it was closed for the night.  Really?!?!? Spend the extra and go to a real hotel.  I wish we had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r153982750-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>153982750</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Only rhe outside is remodeled</t>
+  </si>
+  <si>
+    <t>On the outside, it looks like an updated modern hotel with everything newly painted and nicely landscaped but on the inside, the bathroom was gross. It had an old shower curtain, sink didnt work properly, tub was an eye sore, kitchen was old and out dated  and bed spread smelled.I looked under the fitted sheet just to find dark yellow stains.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>On the outside, it looks like an updated modern hotel with everything newly painted and nicely landscaped but on the inside, the bathroom was gross. It had an old shower curtain, sink didnt work properly, tub was an eye sore, kitchen was old and out dated  and bed spread smelled.I looked under the fitted sheet just to find dark yellow stains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r139593654-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>139593654</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Long Term Stay</t>
+  </si>
+  <si>
+    <t>I've been staying in this hotel for a while as a travel nurse and all I have to say is that the staff and the manager, Anny, had been so helpful and nice. It's home away from home. Having lived across the country (mostly Extended Stay) working as a Travel RN, Extended Stay Del Amo Circle   have this "Homey" feeling. It all starts from the way the staff treats you, the cleanliness and of course the location. Keep up the good work Miss Anny D!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>I've been staying in this hotel for a while as a travel nurse and all I have to say is that the staff and the manager, Anny, had been so helpful and nice. It's home away from home. Having lived across the country (mostly Extended Stay) working as a Travel RN, Extended Stay Del Amo Circle   have this "Homey" feeling. It all starts from the way the staff treats you, the cleanliness and of course the location. Keep up the good work Miss Anny D!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r136776979-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>136776979</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Lowest available cost - don't expect much</t>
+  </si>
+  <si>
+    <t>Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night...Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night and we have at least another week to go and there is no hope in sight that we will be moved or that "breakfast" will improve any.  Their customer service should be taught better and improved.  The price is about as good as you can get, but in this case you definitely get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night...Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night and we have at least another week to go and there is no hope in sight that we will be moved or that "breakfast" will improve any.  Their customer service should be taught better and improved.  The price is about as good as you can get, but in this case you definitely get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r135749415-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>135749415</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Worn out and unclean.</t>
+  </si>
+  <si>
+    <t>Writing from my hotel room right now. I have stayed here at this location a few times. a few years back this place was a decent hotel however that is not the case anymore. Six months ago I was here and was disappointed in a big way. however I was told  hotel was going through some renovation so I was hoping there would be some improvements this time. OK it didn't happen! This place is worn out and dirty. Carpets, chairs, and other furniture in the room are not only old but unclean to a disgusting point! Few months ago when I stayed here for couple of days I mentioned to management that chair in the room was disgusting and they said it will be taken care of however as you see in my pictures nothing has changed since then. Also this hotel allows pets but they have room service once a week! I imagine when people with their 60lb pitbulls stay here there should be extra cleaning and maintenance going on but that is not so! Carpet in the room is filthy however it looks better in hallways. Parking is outdoor and is OK. Home size refrigerator and oven is good for saving money not to eat at restaurants all the time but you have to live with the smell of other people cooking most of the time. Location is very good and close to Shopping and groceries.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Writing from my hotel room right now. I have stayed here at this location a few times. a few years back this place was a decent hotel however that is not the case anymore. Six months ago I was here and was disappointed in a big way. however I was told  hotel was going through some renovation so I was hoping there would be some improvements this time. OK it didn't happen! This place is worn out and dirty. Carpets, chairs, and other furniture in the room are not only old but unclean to a disgusting point! Few months ago when I stayed here for couple of days I mentioned to management that chair in the room was disgusting and they said it will be taken care of however as you see in my pictures nothing has changed since then. Also this hotel allows pets but they have room service once a week! I imagine when people with their 60lb pitbulls stay here there should be extra cleaning and maintenance going on but that is not so! Carpet in the room is filthy however it looks better in hallways. Parking is outdoor and is OK. Home size refrigerator and oven is good for saving money not to eat at restaurants all the time but you have to live with the smell of other people cooking most of the time. Location is very good and close to Shopping and groceries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r133409098-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>133409098</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Outstanding is...</t>
+  </si>
+  <si>
+    <t>When the parking lots has ample available spaces close to the entrance including a drive bell station with helpful available staff.When the manager has my keys waiting for me as I just mention my name.When the room is spotless clean and plenty of towels already hang in the bathroom.When the bed linens and pillows have a fresh laundered scent as did the entire room.When everything I needed for day to day living was provided by nice clean sealed utensils, plates, pots, etc. Even the ice trays were fresh and filled with ice.When all the staff were friendly and accommodating regardless even my sometimes unusual needs.I've stayed at many top hotels and there's always something I have to complain about, but this location left me a happy, satisfied and a well rested traveling executive. I'd like to especially thank the manager that truly stood out in my memory for the personal attention she gave me throughout my stay, thank you AJ!MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Torrance - Del Amo Circle, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>When the parking lots has ample available spaces close to the entrance including a drive bell station with helpful available staff.When the manager has my keys waiting for me as I just mention my name.When the room is spotless clean and plenty of towels already hang in the bathroom.When the bed linens and pillows have a fresh laundered scent as did the entire room.When everything I needed for day to day living was provided by nice clean sealed utensils, plates, pots, etc. Even the ice trays were fresh and filled with ice.When all the staff were friendly and accommodating regardless even my sometimes unusual needs.I've stayed at many top hotels and there's always something I have to complain about, but this location left me a happy, satisfied and a well rested traveling executive. I'd like to especially thank the manager that truly stood out in my memory for the personal attention she gave me throughout my stay, thank you AJ!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r131307063-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>131307063</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>One of the best hotels I've ever stayed in.</t>
+  </si>
+  <si>
+    <t>Extended Stay America in Torrance is a great hotel. The staff were very nice and helpful. Everyone was friendly and I had no problems at all during my stay. The room was big and clean, I really liked the kitchen, and I enjoyed the breakfast. I would definitely recommend this hotel to my friends. MoreShow less</t>
+  </si>
+  <si>
+    <t>Extended Stay America in Torrance is a great hotel. The staff were very nice and helpful. Everyone was friendly and I had no problems at all during my stay. The room was big and clean, I really liked the kitchen, and I enjoyed the breakfast. I would definitely recommend this hotel to my friends. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r127653752-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
+  </si>
+  <si>
+    <t>127653752</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Ants in the room!</t>
+  </si>
+  <si>
+    <t>If you have business in Torrance area, there are not many hotels options.  Homestead is a lower priced property, but you get what you pay for amd more - ants.  One ant, okay, but when you see a line of ants you knw you have problems.  The front desk was nice enough and honest about the situation.  They offered me another room, but admitted it would probably have ants also.My next stay will be at the higher price properties in the area.  The savings hear is not worth it.  Sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>If you have business in Torrance area, there are not many hotels options.  Homestead is a lower priced property, but you get what you pay for amd more - ants.  One ant, okay, but when you see a line of ants you knw you have problems.  The front desk was nice enough and honest about the situation.  They offered me another room, but admitted it would probably have ants also.My next stay will be at the higher price properties in the area.  The savings hear is not worth it.  Sorry.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2153,4137 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>269</v>
+      </c>
+      <c r="X27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
+        <v>322</v>
+      </c>
+      <c r="K34" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>324</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" t="s">
+        <v>328</v>
+      </c>
+      <c r="K35" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s">
+        <v>330</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>331</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>337</v>
+      </c>
+      <c r="O36" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>337</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>173</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>356</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>357</v>
+      </c>
+      <c r="J40" t="s">
+        <v>358</v>
+      </c>
+      <c r="K40" t="s">
+        <v>359</v>
+      </c>
+      <c r="L40" t="s">
+        <v>360</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>381</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>408</v>
+      </c>
+      <c r="X47" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>417</v>
+      </c>
+      <c r="X48" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>425</v>
+      </c>
+      <c r="O49" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>428</v>
+      </c>
+      <c r="J50" t="s">
+        <v>429</v>
+      </c>
+      <c r="K50" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>432</v>
+      </c>
+      <c r="O50" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>435</v>
+      </c>
+      <c r="J51" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>441</v>
+      </c>
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" t="s">
+        <v>443</v>
+      </c>
+      <c r="L52" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>445</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>447</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+      <c r="J53" t="s">
+        <v>449</v>
+      </c>
+      <c r="K53" t="s">
+        <v>450</v>
+      </c>
+      <c r="L53" t="s">
+        <v>451</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>432</v>
+      </c>
+      <c r="O53" t="s">
+        <v>107</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>452</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>453</v>
+      </c>
+      <c r="J54" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>456</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>457</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>458</v>
+      </c>
+      <c r="J55" t="s">
+        <v>459</v>
+      </c>
+      <c r="K55" t="s">
+        <v>460</v>
+      </c>
+      <c r="L55" t="s">
+        <v>461</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>465</v>
+      </c>
+      <c r="J56" t="s">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>469</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>470</v>
+      </c>
+      <c r="X56" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>479</v>
+      </c>
+      <c r="X57" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" t="s">
+        <v>484</v>
+      </c>
+      <c r="K58" t="s">
+        <v>485</v>
+      </c>
+      <c r="L58" t="s">
+        <v>486</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>487</v>
+      </c>
+      <c r="X58" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>490</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+      <c r="J59" t="s">
+        <v>492</v>
+      </c>
+      <c r="K59" t="s">
+        <v>493</v>
+      </c>
+      <c r="L59" t="s">
+        <v>494</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>495</v>
+      </c>
+      <c r="O59" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>496</v>
+      </c>
+      <c r="X59" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>500</v>
+      </c>
+      <c r="J60" t="s">
+        <v>501</v>
+      </c>
+      <c r="K60" t="s">
+        <v>502</v>
+      </c>
+      <c r="L60" t="s">
+        <v>503</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>504</v>
+      </c>
+      <c r="O60" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>505</v>
+      </c>
+      <c r="X60" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" t="s">
+        <v>510</v>
+      </c>
+      <c r="K61" t="s">
+        <v>511</v>
+      </c>
+      <c r="L61" t="s">
+        <v>512</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>495</v>
+      </c>
+      <c r="O61" t="s">
+        <v>173</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>513</v>
+      </c>
+      <c r="X61" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>521</v>
+      </c>
+      <c r="X62" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>524</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>525</v>
+      </c>
+      <c r="J63" t="s">
+        <v>526</v>
+      </c>
+      <c r="K63" t="s">
+        <v>527</v>
+      </c>
+      <c r="L63" t="s">
+        <v>528</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36367</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K64" t="s">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s">
+        <v>534</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>535</v>
+      </c>
+      <c r="O64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Stephen B</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>First of all I usually do not write reviews because some can be very biased.   But I had to in this case.   Pro: Bed was good for the price.  Manager tried to do something but she was the only one.Cons:. Room was very dirty (looks like it wasn't dusted in a LONG time.  Tub was very dirty and either had mold along the edges or dents in the material.  Decided not to touch and find out for sure.  Had a hard time sleeping because of allergies and the amount of dust.  Pillows were hard as a rock.We stayed there 5 nights, manager gave us 2 nights free.  Mgr also sent someone to clean the room but the dust wasn't addressed.. just the beds made etc....   Front desk staff obviously didn't like their jobs... Wasn't rude but not helpful.   A couple of other things happened which I didn't address in this review.  Needless to say... I do not recommend and will not stay here again.More</t>
   </si>
   <si>
+    <t>653pamelai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r572579775-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Great for a few nights stay.  I wouldn't stay much longer because of the funky odor in the halls.  If you need an inexpensive place to stay, this place was fine.  We were visiting our daughter, so we weren't interested in what the location had to offer, except that it was close to her home.  But for the record, it was very close to a huge mall and lots of restaurants.More</t>
   </si>
   <si>
+    <t>mariaelenam379</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r572347062-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>It was a nice experience everything is within 5 min drive. Continental breakfast was not what i expected only coffee and bread,  but yummy. Friendly staff super busy. One thing i wish they had is ice maker....More</t>
   </si>
   <si>
+    <t>Eric P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r562020054-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Dirty lobby, dirty continental breakfast bar, fingerprints on the room doors, nasty floors. I checked out after 6 days, paid for 7 no refund was given, I didnt even ask. Then 2 days later I was charged an additional 50 dollars for a "rate adjustment" Manager very rude, would not help in any way. I am currently disputing the charge with my card company. Avoid this place.More</t>
   </si>
   <si>
+    <t>hartini88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r557955474-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I had worst experience with extended stay america in this location because they did not have the room that was reserved and they had to transfer me to another extended stay america. I had reservation for a studio suite with 2 queen beds for 3 adults and 1 infant since I bring my mom who in wheelchair and also a 3-month old baby. We came for check-in before 6 pm and the receptionist (his name is Mel) can only get me a room with one King bed. It does not make sense for 3 adults and 1 baby to stay in a room with one king bed. I complained but the receptionist keep saying he cannot do anything else for me except to find me a room in another location. It was so terrible, how come I could not get the room that was reserved and paid? and paired with unhelpful and unprofessional receptionist even make it worst. The receptionist even requested for wrong room when he transferred me to another extended stay america (Harbor Gateway) but luckily the receptionist in Harbor Gateway location was very professional and she managed to give me studio suite with 2 beds.More</t>
   </si>
   <si>
+    <t>15liuyic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r540836853-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>The hotel need a update, room was old so was the bedding and  sheets, there was wall outlet and bed lights does not work, we did find trash under the bed and free wifi is bit slow. only thing I can commend is the location was great, walking distance to the Mall and all kids food and shopping .More</t>
   </si>
   <si>
+    <t>bear189</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r531567385-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>It is very convenient. It’s close to many kind of restaurants, shopping mall, groceries and so on. Very quiet and safe. The stuff are very friendly.  A room is just OK, nothing special. But hey for this price, who would like to complain about it. More</t>
   </si>
   <si>
+    <t>hotelguest90503</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r531546390-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>Special thanks to Kalpi (site manager), Dan, Dolores, Tushi, Maltilde and special thanks to Jazmine for sharing her like for Chocolate Chip Cookies with me, Oh and special thanks to FIna wherever she may be! .More</t>
   </si>
   <si>
+    <t>Shellita1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r529904241-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Just looking for a comfortable bed and shower....no need for pool or fitness room or elegant lobby?Got my AAA discount and good night's sleep.COMFORTABLE BED! Very important. Very clean. Includes TV desk, mini kitchen - stove sink fridge cabinets microwave. $109/ night. Why pay $250 Across the street?More</t>
   </si>
   <si>
+    <t>diva2017132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r529241499-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Front desk ladies were amazing, including Jasmine.I live Extended Stay Hotels in general, but this location was a step up from some of the others, like the glass shower was nice! Location was very quiet too. More</t>
   </si>
   <si>
+    <t>trippingusa2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r526644761-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>You'll be OK here if you stay for less than a week or two at the most,. Any longer and you'll see why it is bare bones low end. Yes, you'll find over time that multiple repairs are needed for your room, but the real low-end of this place isn't the amenities but the extraordinary runaround you'll get if you want to request repairs, service they offer or anything else that requires some coordination and communication.This property caters to many foreigners and families that have lesser standards and will tolerate the lack of service here. So, if that is you...you're fine here.Extended Stay? Again, you're better off almost anywhere else if you explore your options. First...if you're here for anything more than a brief stay, you'll get a discount rate which means you're "family". That means you tolerate their poor communication, runaround, and disrespect, and don't mind the frequent frustration. No matter what the issue...they're always right. So, their standard is that you can go elsewhere if you're unhappy. So,,, if you want to be happy here, Just don't try to problem-solve, coordinate (even simple housekeeping and poor wi-fi) or reason with them about anything. The ballgame changes from minute to minute. Again, they're always right!More</t>
   </si>
   <si>
+    <t>Agentenaymorgan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r520645022-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>I have traveled the world and I have never had a bad experience like I did when I stayed here. Dirty, awful customer service and corporate doesn't respond to complaints they just send you back to the hotel you complained about and ignore your emails and phone calls. DO NOT STAY HERE!More</t>
   </si>
   <si>
+    <t>Don H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r506772592-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>I needed to stay in the South Bay area for a couple of days and did not want to spend summertime beach-area rates. This place is perfectly located for anything you want to do in the area. It's also a quiet spot because it's not on any main drag, but a couple of blocks from busy Hawthorne Boulevard.The room and bathroom were perfectly clean on my arrival. The building, the furniture and fixtures were just average. The bed was typical of average grade motels, clean but not very firm, with some sagging spots.The front desk is not manned all hours of the day and night, but all staff I came in contact with were friendly and helpful.Hot coffee is not available in the lobby until around 7:00 a.m., so if you need your early morning coffee, remember to ask at the front desk for a coffee maker and any other utensils you need before you go to bed.More</t>
   </si>
   <si>
+    <t>S7149BJheatherk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r505341121-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>If you are seriously broke and this is all you can afford then go for it otherwise I would pass this place and find somewhere else. No Gym, rooms are okay but dated and the whole hotel was grimy and dirty. No food except a bag of oatmeal and they did have coffee but I couldn't even find a vending machine anywhere. place smelled like stale smokeMore</t>
   </si>
   <si>
+    <t>D4345QSstevea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r504853606-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>Bad rooms, no breakfast Loud banging sound of door footsteps heard inside the roomNo kitchen utensilsNo cover for the sofa / couch on my king suite roomNo toilet paper on the bathroom when we got thereNo housekeepingMore</t>
   </si>
   <si>
+    <t>883jillianl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r499252203-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>Needs to have their bath tubs repaired so that the water stays in the tubs.  Also, the rooms need closet doors a curtain or some sort of cover over the area where clothes and shoes go.  Don't just leave it exposed!  Need to keep their stairways clean, their glass door exits are filthy, the laundry area was dirty, trash was over flowing and trash on the floors.   Great location but that's it.More</t>
   </si>
   <si>
+    <t>Jose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r492464774-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -598,6 +649,9 @@
   </si>
   <si>
     <t>The hotel is in a very nice area. With useful stores close by like a Wal-Mart target Ross and fast-food restaurants close by which are good to have when vacationing or on a road trip. And big Malls too. The price was good and they provide an ok breakfast snack table in the morning with coffee and hotcoco to drink. I recommend it.More</t>
+  </si>
+  <si>
+    <t>D3975OYjohnp</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r491961751-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
@@ -661,6 +715,9 @@
 Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen...The rooms are well appointed with the amenities you need plus kitchenette. Nothing fancy here but adequate. Once in, you notice as many as 9 items that need repair. They try to accommodate you, but you learn to live with some things beyond repair for lack of replacements. But it doesn't stop there! Don't waste your time reporting items that they feel are in good repair. It takes you a while to realize they have no intention of repairing that item. Reason: they are afraid you'll cost them money so they feign interest with feeble attempts to address the problem, when in reality, they don't want to discuss it with you. They'd rather make you the problem, and it goes downhill from there, to the point of subtle harrassment and bullying. Meantime, they'll make feeble attempts to solve the problem, when the goal is to discredit you so you are induced to leave the property early while they take no responsibility for property management. This is wholesale irresponsibility and unaccountabilityReasonably quiet, but 3 fire alarms sounded, one at 12:10 AM in the 10 days I stayed.There were no fires and no explanation about why the alarms were pulled.You get what you pay for: 3 police cars were at the property one day. Property tends to attract foreigners, blue collar workers on business. Non-smoking rooms are abused. Bath stunk of smoke for weeks! They don't attempt to freshen it for you.More</t>
   </si>
   <si>
+    <t>h y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r452788321-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -688,6 +745,9 @@
     <t>where is the lobby for the hotel? staff are not polite and doesn't want to answer the questions . the rooms are ok and parking has limited spaces. the internet speed needs to improved. it is very slow and not worth the pay.More</t>
   </si>
   <si>
+    <t>kazm321943</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r443805374-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -715,6 +775,9 @@
     <t>We stayed there only one night.  The kitchen did not have ANY utensils, plates, cups, coffee maker, ...  and when I called the front desk, she said she would gather things and bring them up, but after 40 minutes, we had to go to the front desk to pick up necessities. There was only one nightstand, so I did not know where to put my book, glasses, ... In the morning there was no hot water and this was SO unacceptable.We counted on the reputation of the Extended Living places, and next time we would make sure whom are the management before making any reservations.REMOVE this hotel from your list.  DO NOT STAY THERE.More</t>
   </si>
   <si>
+    <t>rka015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r440937713-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -742,6 +805,9 @@
     <t>The Bathroom fan didn't do its job.  Had to take a bath with the door open to help keep the bathroom mirror free of steam.  Can't count how many spiders I killed during the stay. Grab and Go breakfast is a joke.  People walking in and out of the exit next to my room was 24hrs a day.  For an extended stay hotel only came with 4 hangers and when I went to the front desk they had none.  Internet went down for 24hrs one day. Refrigerator when running is loud and cabinets are the same style I had when I built my house in 1993.  Fire station right next door and if called out in the middle of the night I'm sure would wake up anyone.Plus side, walking distance to shopping and restaurants.  Had to stay here cause other hotel where other colleagues stayed for a meeting was full.  Next time won't come to the meeting if I cannot find another hotel.More</t>
   </si>
   <si>
+    <t>e2li02t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r439262974-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -766,6 +832,9 @@
     <t>My non-smoking room smelled like cigarette smoke, A/C was broken and was not repaired, dishes were provided by way of placing on front desk without option of assistance or delivery. All dishes and utensils were dirty and stinky, needed to rewash. Bed linens felt like sandpaper... slept in my clothes on top of bed for the week long duration of my stay.More</t>
   </si>
   <si>
+    <t>Owieca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r435950828-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -791,6 +860,9 @@
   </si>
   <si>
     <t>I got this hotel as a express deal from priceline. Location and parking are good. Rooms are spacious, have fridge, microwave and the front desk can provide silverware and other stuff that you need for kitchen. Internet speed is fine. Room and bathroom were clean. The only complaint is that we got a non-smoking room and definitely somebody was smoking there before. Breakfast is very basic: you can grab coffee, some granola bars, muffins, and oatmeal. I would recommend for a quick stay.More</t>
+  </si>
+  <si>
+    <t>zizouzidane</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r421566178-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
@@ -824,6 +896,9 @@
 When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before...I visited for an overnight stay. When I arrived, my room wasn't ready so I was asked to come back after an hour. When I returned, I was taken to my room. I noticed the light switch in the bathroom didn't work at all so I called the front desk. The lady came to my room and realized it wasn't just the bulbs that needed to be replaced, and there was a problem with the switch, altogether. So she asked me to stay in the room for about 10-15 minutes while she tries to find a new room for me. After waiting for 25 minutes, I went back to the front desk with all of my suitcase and asked what the status was or if they would take a refund. I noticed that the original front desk receptionist wasn't there, and there were two others. One of them looked to be the shift manager. She said she would approve a refund or I can switch to an upgraded room. Because of my schedule (I needed to head out to a wedding), I accepted an upgrade for a "deluxe room" with a king-sized bed. When I went to my new room, I inspected all of the lights to make sure they were functioning. When I went into the bathroom, I noticed that there were "marks" and "splatters" in the toilet bowl. I immediately realized that whoever stayed in this room  before me had used the toilet, which wasn't cleaned by housekeeping. I then noticed urine stains on the toilet rim. When I lifted the toilet seat (with my foot), there were 3 strands of "hair". Disgusting.I called the front desk again, and they sent housekeeping to come. A nice lady came about 5 minutes later, and she was appalled when she saw the toilet. She immediately called the front desk to confirm that the toilet was not cleaned. She apologized to me, and I felt horrible that she had to clean the mess.Considering that the toilet wasn't cleaned, I wasn't sure what actually was cleaned. So that night, I just slept on the side of the bed on a layer of towels without the blanket. I packed my bags at 6am and left the hotel as soon as possible to head out to the airport.The location was nice as it was close to restaurants, and there's a large shopping mall across Hawthorne. The amenities are poor and lacking. The "breakfast" area was just a table with some coffee and cereal bars.Sure, the price is nice. However, there is a reason for it. I will not stay at another Extended Stay.More</t>
   </si>
   <si>
+    <t>LoneTraveler53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r419955451-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -848,6 +923,9 @@
     <t>Stayed for 6 days for business.  The location is very good.  There is a shopping mall and many restaurants nearby.  Breakfast is a very light pick'n go type.  Felt bit expensive with the service.  ビジネスで6日間宿泊しました。ホテルの立地は非常に良いです。ショッピングモールも近くにありますし、レストランもたくさん近所にあります。朝食はロビー脇にコーヒー、マフィンとスナックバーのみの、自分でほしい分を部屋に持って行って食べる簡単なもの。サービスの割に料金が高いと感じました。More</t>
   </si>
   <si>
+    <t>greynomad1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r417724486-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -872,6 +950,9 @@
     <t>Stayed 2 nights, musty smell, thank goodness we were able to open window for fresh air.  Kitchenette, with microwave but no utebsils, no coffee machine, no hairdryer.  Breakfast was miserable, expected to eat your porridge oats out of a cup, sweetened milh and vanilla milk for coffee and tea.  What's wrong with normal milk, does everything have to be unhealthy??More</t>
   </si>
   <si>
+    <t>ideepakc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r405269230-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -899,6 +980,9 @@
     <t>The room was good sized; its kind of a service apartment with microwave, fridge and utensils (on demand). In fact everything incl. hair-dryer is on demand here. No full fledged Breakfast - Just oats, fruits, coffee / hot chocolate, cakes, energy bars. There is no house-keeping unless you ask them (i think)Its close to the Del Amo mall and there is also a Wal Mart, Sears,,Toys-R-Us and some other shops within a 10minute walking radius.More</t>
   </si>
   <si>
+    <t>P F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r402185004-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -923,6 +1007,9 @@
     <t>We were up in Torrance last weekend and I couldn't see spending $200+ for a hotel room so I booked a room at Extended Stay America.  Never again.  The appearance of the outside of the facility far surpassed the condition of the inside.  Upon check-in I was informed that the hotel was booked solid.  We were given a nonsmoking room on the first floor.  I was immediately hit with the smell of stale cigarette smoke and musty carpets when I opened the door to our room and the laminate floor in the kitchen appeared to be sticky or had a build-up of sticky residue.  I told my daughter, "do not walk on the floor without your shoes on."  Luckily I had a can of Febreeze in my toiletry bag.  I turned the air conditioner on at full blast and proceeded to exterminate the room with Febreeze.  In my opinion, the inside of the facility could use a total renovation.More</t>
   </si>
   <si>
+    <t>craig_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r391876027-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -947,6 +1034,9 @@
     <t>This place was a bit unusual.  Firstly, there is no 24 hour front desk.  Its only available from 6:30am until 10:30pm.  Outside of these times you pick up the house phone mounted in the entry vestibule and dial a number.  However, the phone doesn't work.  Not even a dial tone.  So, we wound up calling the main number.  After about 15 minutes a staff person presented herself and presented up with key cards.  We were placed into Room 347 on the third floor.  The room contained a full kitchen, but no utensils or plates.glasses readily available.  They have to be requested.  The kitchen area was larger than the the sleeping area, which consisted of a bed, chest of drawers (TV on top) and a small desk.  No actual living area with couch.  Bags of garbage are left in the hallways and very unsiightely.  The good: parking is free and onsite, proximity to shopping is ideal, relatively convenient to LAX if you have a vehicle.More</t>
   </si>
   <si>
+    <t>Susan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r372715809-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -974,6 +1064,9 @@
     <t>I really like this place and it is local to everything. The only thing is that it needs some deodorizer in the hall. When I was there the hall on the second floor really smelled bad. But, the room was great. Clean, nice beds, nice clean bathroom.The only problem I've ever had with Extended Stays are their reservations. You can't confirm your reservation without a lot of questions that they say are for your own good. And, even after you give them the information they want to give you a hard time. Very bad customer relations. I have one more stay with them and then will try to find some place else. I don't need the drama they give you just to confirm your reservation.More</t>
   </si>
   <si>
+    <t>jeanneo243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r336305674-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -992,6 +1085,9 @@
     <t>Other reviews of this place are right in saying it is smelly.  I was on the third floor, and although all of the rooms I saw were designated nonsmoking, the hallway reeked of smoke.  It must be in the air ducts.  My room smelled both smoky and musty, and at one point I discovered the backs of the curtains were coated with mildew, which accounts for the mustiness. I would have walked if I had not been required to pay for my entire stay up front, this must be why they have this policy.  The bed was hard and the pillows and covers were thin. When I opened a bath towel to dry off, a long black hair fell out into the tub.  The staff is nice enough, it's not their fault, but I would never stay here again. This could cause a serious health problem for someone with allergies.  I'd recommend the Doubletree right next door, or the Marriott across the street.More</t>
   </si>
   <si>
+    <t>sascanlan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r329719968-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1010,6 +1106,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>dkjbennett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r292751822-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1028,6 +1127,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>EJS2015a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r291922165-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1046,6 +1148,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Cynthia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r285986936-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1062,6 +1167,9 @@
   </si>
   <si>
     <t>If you are a business man/woman or family don't stay here . The price we ended up paying for our room was $169.99 not including the tax,not worth it. Price should've been $80. When we arrived, the smell of week old oyster sauce permeated the hallways of the second floor. Our room was  missing garbage cans for  the kitchenette and the restroom, old carpet, old filthy dingy curtains it was very dusty. Some lamp lights weren't working. No coffee maker I had to go downstairs and ask for it and the pot had these white stuff in it I decided not to use it. The blow dryer didn't work unless  you continuously push the button using  your left finger , but I eventually figured out a way to keep it on by lodging a piece a paper in there. Our room smelled like week old Asian Hoisin sauce and cinnamon air refreshener mixed in. My clothes and my hair smelled like it when I left the room. The next night when I asked the maid  for towels she said she ran out of towels because it was late at night and she'll have it for me the next morning when the delivery comes at 6am. She was able to find me that same night though . Best thing I can say is that house keeping staff , the front Desk Marisa and Arlene were very nice to us.More</t>
+  </si>
+  <si>
+    <t>Erik W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r283992726-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
@@ -1090,6 +1198,9 @@
 I was repeatedly told...BOTTOM LINEAt $130/night, this hotel is way overpriced for what you get. The do-it-yourself policy and nasty, unaccommodating staff already had me looking to stay elsewhere during my stay. The prepayment upon check-in policy means they’ve got you by the balls and no early check out allowed for dissatisfaction. As I looked for alternative lodging even though I could not check out early, I discovered a number of other hotels in the same area in the $90-100/night range that could not have been worse and which were probably much better.  This hotel is worth no more than $75/night and is masquerading as something better.NASTY STAFFFrom the desk clerks to the Assistant Manager and Manager, all staff here have been trained as masters in “The Art of No”. Anything you want is met with an immediate “no” or “if we can do it”. And then they might try to do what you asked. For example, I asked for an extra blanket. The answer was “if we have one, since some of the laundry wasn’t done today and we’re backed up.” Not my problem you didn’t get your laundry done on time. One morning I stopped by the front desk and a couple was having a heated discussion with the manager who apparently reneged on a promise made during their previous stay. Apparently, I wasn’t the only one who found management here less than accommodating.I was repeatedly told that the hotel was sold out, which is why they could not honor my request for a quiet room (which was put into the original reservation more than a week in advance of my arrival). I worked for hotels for 3 years and there is no way this hotel was sold out like they kept offering as an excuse. I suspect they took some rooms off inventory, either because something needed fixing in the room or they didn’t have enough staff to service the entire hotel.The do it yourself policy means that if you want more towels or pillows, an extra blanket, cutlery, dishes, cookware, etc. you have to go to the front desk to get it or check it out. Want to get rid of your garbage? Do it yourself. Want to make your bed? Do it yourself (or you can pay additional for each housekeeping visit you request). Sure, that's part of the "extended stay" game, but I couldn't help but be offended by the "don't bother us" approach.California is currently experiencing its worst drought ever. There is an amusing sign hung in the bathroom (see picture) inviting you to save your towels and bed sheets for each cleaning (only once weekly). That’s right, you can save the hotel even more money by not having your rank towels and sheets changed – ever.DIRTY DETAILSThe hotel itself appears nice and clean, but on a deeper look, you notice serious lack of attention to detail. For example, human hair lodged in the bathtub drain. When entering the first room they put me in, there was dried cheese or something similar on the kitchen counter. I checked out cutlery from the front desk and a knife had dried jam on it.NOT FIT FOR PURPOSESupposedly I was in a quiet room (332). Have a look (see photo) at the gap of about ½ inch thick between the edge of the door and the frame. The picture was taken in the hallway looking at the room’s door with the light on inside the room. You could hear everything in the hallway, not to mention lack of complete privacy.The Wifi not suitable for business use. It was simply too slow and kept dropping out. A paid (of course) upgrade option is available that presumably ushers your wifi needs to the front of the line. I decided to decline and not throw good money after bad. So much for the free Wifi.I was in 2 rooms during my stay. In each bathroom, the fluorescent light had a strobe effect when first turned on. This means that for the first 30 seconds or so, the light flickers terribly, which is very disturbing. If you have a medical condition that prevents you from viewing strobe lighting, do not stay at this hotel. I ended up keeping the bathroom light on 24/7 because it was so annoying.The air conditioner in the first room was great. However, in the second room, it barely worked. I kept the A/C on its lowest setting in room #2 and it never got as cold as it did in the first room. The bed was hard as a rock. If you like hard beds, this hotel is for you.In the first room, the hair dryer experienced a short after it glowed red-orange inside for a minute (I was expecting an explosion actually). I reported this to the front desk and doubt they replaced it. In the second room, there was no hair dryer attached to the wall, but they did have one for me to check out.The “grab and go breakfast” consists of instant oatmeal, granola bars, heavily bruised fruit and pre-packaged muffin-like products. The coffee-like product was undrinkable. Luckily there were a couple grocery stores not too far away where I could get some real food.The toilet took multiple flushes to clear fully and on one occasion, I had to go to the reception to get a plunger. Then I was informed that all rooms have plungers in them.  Of course they do because they’re obviously needed on a regular basis.The hallways had a strong smell of cigarette smoke. I thought all hotels were supposed to be smoke-free?More</t>
   </si>
   <si>
+    <t>gailp519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r282987376-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1108,6 +1219,9 @@
     <t>I know this city &amp; needed to stay only 1 night. Many places were booked so took a chance on the overall average to good reviews. The first room we went to had chipped paint, broken rangetop coils, dented refrigerator, bathroom door that would not close shut &amp; badly squeaking, rustling bed when you sat or moved on it. We were given a room change which wasn't cleaned or bed changed. Our 3 rd room was a nice size with a King bed (we had originally requested a queen -which appeared to be a double). The room was clean but the bed gave us both a sore back due to not being a decent quality. The air conditioner adjacent  to the wall  was at bed height. It would have given you a stiff neck &amp; been too cold on your arm. We had to have the window open all night which would have been fine were it not for a neighborhood dog left outside all night barking.We left early in the morning &amp; were glad to leave. The worst part of all was the reeking smell of smoke in the halls even with many rooms labeled No Smoking.The breakfast that is included is coffee or tea, a bowl of fruit to choose from (apple, banana,orange) &amp; a cold muffin in a plastic wrap or granola bar. Choose wisely.More</t>
   </si>
   <si>
+    <t>katalinbrisbane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r282768204-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1123,6 +1237,9 @@
     <t>This is the first time we have stayed in an Extended Stay America hotel.  We were pleaslantly surprised.  Good Value and clean rooms.  Good location, across the road from a huge shopping Centre. Plenty of restaurants around.  The light breakfast is only muffins, porridge, fruit, bars</t>
   </si>
   <si>
+    <t>badel26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r266594282-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1141,6 +1258,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Sara J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r266114634-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1162,6 +1282,9 @@
     <t>I moved to California from Ohio in January (2015) and stayed at the Extended stay for 2 months while searching for a permanent home for my family. This hotel is in a great location and it is accessible to everything. It was very clean. I like my privacy, so I just requested a vacuum and broom and I had my own cleaning supplies so I could keep the room tidy and maintain my privacy.The staff was extremely friendly and helpful. I never had any problems with anyone. There is a full refrigerator, a stove top, sink and dishes, cookware, silverware, dish drain, toaster, coffee maker and cutting board are all supplied upon request. There is free wifi. Also there is a grab and go breakfast, which consists of things like muffins and fruit.More</t>
   </si>
   <si>
+    <t>Raymond G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r262875066-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1180,6 +1303,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>RALFBKK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r246545839-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1207,6 +1333,9 @@
     <t>That was my 2nd visit to the Extended Stay America in Torrance and despite some bad comments here, I can not really complain. The room I got was very clean and tidy (243). Staff was very friendly upon check-in. There was no one when I checked out (0500am) but got my receipt trough email. I will come again if price level remains the same.More</t>
   </si>
   <si>
+    <t>texm0m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r237317482-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1223,6 +1352,9 @@
   </si>
   <si>
     <t>October 2014</t>
+  </si>
+  <si>
+    <t>Lynne79</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r220547956-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
@@ -1250,6 +1382,9 @@
 I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for...My company booked one night for me thru Expedia. I checked in at reception where there were two young ladies talking behind a computer who didn't bother to acknowledge my presence at their counter for a short while (no one else there). I said "hello" then one of them glanced up at me and said she'd be right with me. Not a very hospital welcoming! The other gal asked if I was checking in and then proceeded to look my reservation up in the computer and took the usual i.d. and credit card for incidentals and had me sign some paperwork, gave me my key and pointed to the elevator. I got to my floor (3rd) and immediately was taken by the overwhelming smell of must and cigarette smoke. I walked down the corridor to my room, opened the door to an even filthier stench...the smell of cigarettes was overwhelming! There were several cigarette burns in the carpet and an ashtray on the counter. I realized they set me up in a "smoking" room, which I didn't realize were around any more.I called down to the oh so friendly reception and asked very politely for another room since I'm not a smoker and couldn't stay in that room due to the cigarette odor. She told me they were "sold out" and she doubted she could move me, but would check with her manager. She put me on hold for about 10 seconds and came back and said, "no, we cannot move you since your company booked you thru Expedia and ok'd the smoking room." She refused to move me! I have traveled a lot for business throughout the years and have stayed at various properties and have NEVER encountered a situation where they refused to move me when I have asked, which has only been a few times. Never have I been treated so rudely and as though my comfort and health was not important.Needless to say, I got my bag and left and found another accommodation not too far away which greeted me with a smile, got me checked in promptly and into a non-smoking room.My company didn't realize that they had actually booked a smoking room so they were able to cancel the reservation thru Expedia since Extended Stay was uncooperative in moving me.sI will NEVER use an Extended Stay America properties again. Let me add, they are inexpensive and not luxurious, which is fine for one night for business, but the room wasn't very clean, either. Toothpaste splattered on the mirror, dirty window which didn't open but a crack, stained and burned carpet, crumbs on the counter but worst of all, the horrible smell! That being said, stick to using Marriott Courtyards!!! I have stayed in many of them thru the years and have NEVER been treated so rudely and their accommodations and comfort put this place to shame!!!! There is one just a couple of miles from this location and price difference is negligible.More</t>
   </si>
   <si>
+    <t>ips28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r207759293-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1277,6 +1412,9 @@
     <t>We stayed there for one night while visiting beaches near by. Very nice and clean hotel, renovated one. very nice location, close to lot of grocery stores. near to beaches. staff was good and helpful.More</t>
   </si>
   <si>
+    <t>Debbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r201935454-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1304,6 +1442,9 @@
     <t>I had a great experience at this Extended Stay America. It was quiet, clean and the staff was very friendly and helpful. The location is great, a lot of choices to eat if you don't want to fix something in your room. The free parking is a great feature as well. The only they could improve upon is the beds, they are a bit stiff.More</t>
   </si>
   <si>
+    <t>Tpclvz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r194158596-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1325,6 +1466,9 @@
     <t>As a former smoker, I sort of killed my sense of smell.  For me to detect odors they need to be very strong.  That goes for good or bad.  The lobby area and 3rd floor of this building smelled like they regularly held AA meeting of a hundred or more smokers who then left their extinguished butts in a wet ash tray.  Fortunately, my room was on the non-smoking side of the hallway and provided relief.  That said, I still had to arrive and leave through the gagging smell of the building. The rest of the place was acceptable. The shower was awesome. I've not ever traveled where I didn't want to return to my room for a good nights sleep. It was like I had to walk through a dump to get there. Clean that (7@p up.More</t>
   </si>
   <si>
+    <t>CAHSMOM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r183368474-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1346,6 +1490,9 @@
     <t>Went here for a girls' weekend away.  For an ESA property, it was rather small. The room was small, the lobby practically non-existent and the breakfast room really cramped.  There is no pool or other amenities that you generally get with this chain.The room was clean and comfortable and the linens were good.  The kitchen was clean, however it was not stocked properly and we had to go to the front desk to obtain enough plates, etc for 3 people. Same with towels.  The hotel has been remodeled, but mostly just cosmetics.  The place still feels rather old and dark.  Probably won't stay here again. It met our needs for the weekend, but just barely.More</t>
   </si>
   <si>
+    <t>townie54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r182571338-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1364,6 +1511,9 @@
     <t>The hotel could use vending machines for snacks.yes, you can go to the store and buy them, but if you want something late at nite, you're SOL. There is a sign by a back door to the smoking area,  where not everyone will see it, that states the hotel has cancer causing elements in the hotel.The coffee is ok, a little weak for my taste. Breakfast consists of apples, oranges,  packaged muffins and breakfast bars. You have to ask for extra coffee and sugar/sweetner. Depending on who's working the desk, you may get a roll of the eyes.The coffeemakers leave alot to be desired. They leak as much on the counter as you get in the 4 oz. cup. Bring paper towels. More</t>
   </si>
   <si>
+    <t>TigerGrad79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r182288603-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1385,6 +1535,9 @@
     <t>We spent two weeks in LA to watch the baseball playoffs.  We've stayed at Extended Stay locations in the past and I was shopping around for one for this trip, but was steered away by some of the negative reviews that came up.  We had never stayed at the Del Amo Circle location and I was curious about it.  But we ended up staying at a Best Western Plus closer to Dodger Stadium that turned out to be a disappointment.  When we needed to extend for two more days and the Best Western was sold out, I jumped at the chance to stay at Del Amo Circle.  I must say the hotel has a very modern feel and is well managed and in a nice area of Torrance.  The room was very comfortable and appointed nicely.  I would definitely stay again and recommend this location for families and couples who like peace and quiet and want the comforts of being at home in your hotel room.More</t>
   </si>
   <si>
+    <t>Vinh D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r177593765-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1400,6 +1553,9 @@
     <t>I've stayed here the last couple of times. Nice clean room with decent wife and lots of cable channels. Good locations since It is not too far from the beaches.But only thing I didn't get is that I extended my stay for a day and lost my smartphone charger after I returned to the room that night after it has been cleaned. Gladly I didn't leave my laptop or valuables. I've always lost stuff in California hotels and never get it back. Just caution people to check out and then check in</t>
   </si>
   <si>
+    <t>Naveen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r176464860-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1415,6 +1571,9 @@
     <t>Very Poor Hotel.It stinks with cigarette smoke. No breakfast. other hotels provide good  breakfast with similar rate.internet was slow.kitchen facility is very bad. No house keeping.I'll never visit again and never recommend this to anyone.</t>
   </si>
   <si>
+    <t>Robert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r168047344-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1436,6 +1595,9 @@
     <t>Stayed the last 7 days in USA at this hotel.wish we had found it sooner. Rooms large enough. Good shower and bathroom, modern flat screen TV. Great kitchen area, large fridge freezer, microwave, toaster coffee machine. On ground floor is guest wash and driers and Each room has iron and board. When towels need changing place soiled ones in service basket near lift. Get fresh from ones reception. Place located next to major routes around city, if you want to chill out from driving you can get local bus direct to Redondo beach for a $1. Great bars and eating places with walking distance so no need to drink and drive.The grab and go breakfast is addiquate good coffee some fruit, and breakfast bars to munch on, but hey Denny's is just across Hawthorne blvd. all in all great place recommend and we will use again.More</t>
   </si>
   <si>
+    <t>HFletes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r157140192-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1463,6 +1625,9 @@
     <t>I live in the area and we had to come to this hotel due to termite extermination being done in our building. The room was clean, the bed was comfortable and it is one of the safest areas in Torrance. The hallways need new carpeting but I'm not sleeping in the hallway. Continental breakfast was ok, nothing great just oatmeal packets, Otis spunkmeyers muffins, fresh fruit, coffee and tea. If you are looking for a full service hotel, go somewhere else, but if its a place to sleep and watch some tv, this is the place. Del amo mall is one block away and restaurant row with a souplantation, red lobster, elephant bar, Starbucks, bev mo, the counter and bagel shop are very close by. True, no pans and only a few plates. Also no detergent to wash the dishes or towels to dry them, so I didn't bother eating on their items. For it being an extended stay place, I expected these items by default. I think they need to work on some things, but they rely on a lot of non picky people to stay here. If they up'd their game just a little bit, it could be a much better hotel.More</t>
   </si>
   <si>
+    <t>Marla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r156259046-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1490,6 +1655,9 @@
     <t>We had a lapse between moving out of our apt in San Diego before we could move in to our new one in Los Angeles.  After spending five days here we couldn't be happier to leave.  I've stayed at many Extended Stays and the beauty of them is having home amenities.  This place provides NOTHING.  Yea, there was a stove but no pans or silverware so what's the point?  There are no housekeeping services at all.  Never once even got clean towels.  The quality of the bedding, towels, soap, everything only rivals what I would imagine you get at homeless shelter. I once walked out of the room at night forgetting my key and when I went to the front desk it was closed for the night.  Really?!?!? Spend the extra and go to a real hotel.  I wish we had.More</t>
   </si>
   <si>
+    <t>karen m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r153982750-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1514,6 +1682,9 @@
     <t>On the outside, it looks like an updated modern hotel with everything newly painted and nicely landscaped but on the inside, the bathroom was gross. It had an old shower curtain, sink didnt work properly, tub was an eye sore, kitchen was old and out dated  and bed spread smelled.I looked under the fitted sheet just to find dark yellow stains.More</t>
   </si>
   <si>
+    <t>Mel F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r139593654-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1541,6 +1712,9 @@
     <t>I've been staying in this hotel for a while as a travel nurse and all I have to say is that the staff and the manager, Anny, had been so helpful and nice. It's home away from home. Having lived across the country (mostly Extended Stay) working as a Travel RN, Extended Stay Del Amo Circle   have this "Homey" feeling. It all starts from the way the staff treats you, the cleanliness and of course the location. Keep up the good work Miss Anny D!More</t>
   </si>
   <si>
+    <t>Meryl L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r136776979-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1568,6 +1742,9 @@
     <t>Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night...Most people who stay here are here because they either have work or have an extended Hospital stay.  I reserved a handicapped, non-smoking, ground floor, queen bed room for while we wait for a knee replacement.  When we arrived all they had was a third floor, queen bed, smoking room (floor) and a tub (with handicap bars) and they promised they'd move us as soon as they could.  This is 3 days later. They boasted a light breakfast in the lobby as a selling feature.  The first morning there were three rotten bananas ( I took the least rotton one), several oranges, two types of coffee, instant oatmeal, three flavors of nutri-grain bars and individually packaged blueberry muffins.  There was no juice, no decaf, no cereal.  That was almost acceptable as a light breakfast.  The next day there was coffee (again no decaf), no fruit, no muffins, no breakfast bars only a selection of instant oatmeal.  There were only two pillows in the room (not great pillows).  I called the desk and asked if we could have a couple extra pillows (as we are here because of a medical condition that requires propping up) and said I could come get them.  They volunteered to bring them up.  Three hours later I went to the lobby and the attendant said, "Oh yeah, the pillows."  I just said that I'd take them up.  We came in Monday night, it is Thursday night and we have at least another week to go and there is no hope in sight that we will be moved or that "breakfast" will improve any.  Their customer service should be taught better and improved.  The price is about as good as you can get, but in this case you definitely get what you pay for.More</t>
   </si>
   <si>
+    <t>Farzin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r135749415-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1592,6 +1769,9 @@
     <t>Writing from my hotel room right now. I have stayed here at this location a few times. a few years back this place was a decent hotel however that is not the case anymore. Six months ago I was here and was disappointed in a big way. however I was told  hotel was going through some renovation so I was hoping there would be some improvements this time. OK it didn't happen! This place is worn out and dirty. Carpets, chairs, and other furniture in the room are not only old but unclean to a disgusting point! Few months ago when I stayed here for couple of days I mentioned to management that chair in the room was disgusting and they said it will be taken care of however as you see in my pictures nothing has changed since then. Also this hotel allows pets but they have room service once a week! I imagine when people with their 60lb pitbulls stay here there should be extra cleaning and maintenance going on but that is not so! Carpet in the room is filthy however it looks better in hallways. Parking is outdoor and is OK. Home size refrigerator and oven is good for saving money not to eat at restaurants all the time but you have to live with the smell of other people cooking most of the time. Location is very good and close to Shopping and groceries.More</t>
   </si>
   <si>
+    <t>Alek K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r133409098-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1616,6 +1796,9 @@
     <t>When the parking lots has ample available spaces close to the entrance including a drive bell station with helpful available staff.When the manager has my keys waiting for me as I just mention my name.When the room is spotless clean and plenty of towels already hang in the bathroom.When the bed linens and pillows have a fresh laundered scent as did the entire room.When everything I needed for day to day living was provided by nice clean sealed utensils, plates, pots, etc. Even the ice trays were fresh and filled with ice.When all the staff were friendly and accommodating regardless even my sometimes unusual needs.I've stayed at many top hotels and there's always something I have to complain about, but this location left me a happy, satisfied and a well rested traveling executive. I'd like to especially thank the manager that truly stood out in my memory for the personal attention she gave me throughout my stay, thank you AJ!More</t>
   </si>
   <si>
+    <t>LittleMonsterLove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r131307063-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
   </si>
   <si>
@@ -1632,6 +1815,9 @@
   </si>
   <si>
     <t>Extended Stay America in Torrance is a great hotel. The staff were very nice and helpful. Everyone was friendly and I had no problems at all during my stay. The room was big and clean, I really liked the kitchen, and I enjoyed the breakfast. I would definitely recommend this hotel to my friends. More</t>
+  </si>
+  <si>
+    <t>ChicagoKappa09</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33182-d225560-r127653752-Extended_Stay_America_Los_Angeles_Torrance_Del_Amo_Circle-Torrance_California.html</t>
@@ -2157,43 +2343,47 @@
       <c r="A2" t="n">
         <v>36367</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>543</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2205,56 +2395,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36367</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146445</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2276,56 +2470,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36367</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2347,56 +2545,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36367</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8069</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2414,47 +2616,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36367</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2471,56 +2677,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36367</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2542,56 +2752,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36367</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2603,56 +2817,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36367</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2664,56 +2882,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36367</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146451</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2725,56 +2947,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36367</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146452</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2786,56 +3012,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36367</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2853,47 +3083,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36367</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146454</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -2910,56 +3144,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36367</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>17079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2975,56 +3213,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36367</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3046,56 +3288,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36367</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146456</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3117,56 +3363,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36367</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146457</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3188,56 +3438,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36367</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>109631</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3259,56 +3513,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36367</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3330,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36367</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146452</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3395,56 +3657,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36367</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146459</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3462,56 +3728,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36367</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146460</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3529,56 +3799,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36367</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146461</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3596,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Y23" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36367</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146462</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3661,56 +3939,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36367</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>49229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3728,56 +4010,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="X25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36367</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146463</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3789,56 +4075,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="Y26" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36367</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146464</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3850,56 +4140,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="X27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="Y27" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36367</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3915,56 +4209,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36367</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146466</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3980,56 +4278,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="X29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="Y29" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36367</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>119332</v>
+      </c>
+      <c r="C30" t="s">
+        <v>316</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="K30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4047,56 +4349,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36367</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146467</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4114,56 +4420,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36367</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>1783</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4181,56 +4491,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36367</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146468</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4250,50 +4564,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36367</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146469</v>
+      </c>
+      <c r="C34" t="s">
+        <v>351</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="K34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="O34" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4313,50 +4631,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36367</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146470</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4376,50 +4698,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36367</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146471</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4439,50 +4765,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36367</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>26418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4496,50 +4826,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36367</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146472</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4559,50 +4893,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36367</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146473</v>
+      </c>
+      <c r="C39" t="s">
+        <v>386</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4622,50 +4960,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36367</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>34630</v>
+      </c>
+      <c r="C40" t="s">
+        <v>393</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4685,50 +5027,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36367</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146474</v>
+      </c>
+      <c r="C41" t="s">
+        <v>399</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4748,50 +5094,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36367</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>20001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4811,50 +5161,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36367</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>10687</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4874,50 +5228,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36367</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4933,56 +5291,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="X44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36367</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146476</v>
+      </c>
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4996,50 +5358,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36367</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146477</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="O46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5059,50 +5425,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36367</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146478</v>
+      </c>
+      <c r="C47" t="s">
+        <v>446</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5124,56 +5494,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="X47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="Y47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36367</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>12774</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5195,56 +5569,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="X48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36367</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146479</v>
+      </c>
+      <c r="C49" t="s">
+        <v>466</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5268,50 +5646,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36367</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146480</v>
+      </c>
+      <c r="C50" t="s">
+        <v>474</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="K50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="L50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="O50" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5335,41 +5717,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36367</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146481</v>
+      </c>
+      <c r="C51" t="s">
+        <v>482</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="J51" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
@@ -5398,50 +5784,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36367</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146482</v>
+      </c>
+      <c r="C52" t="s">
+        <v>489</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L52" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5465,50 +5855,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36367</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146483</v>
+      </c>
+      <c r="C53" t="s">
+        <v>497</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="J53" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="K53" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="O53" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5532,50 +5926,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36367</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146484</v>
+      </c>
+      <c r="C54" t="s">
+        <v>503</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5599,50 +5997,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36367</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>7260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="L55" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="O55" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5656,50 +6058,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36367</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146485</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5711,56 +6117,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="X56" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="Y56" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36367</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146486</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5782,56 +6192,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="X57" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="Y57" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36367</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>83679</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="K58" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5853,56 +6267,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="X58" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="Y58" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36367</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>104371</v>
+      </c>
+      <c r="C59" t="s">
+        <v>546</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="J59" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="K59" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="O59" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5924,56 +6342,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="X59" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="Y59" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36367</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146487</v>
+      </c>
+      <c r="C60" t="s">
+        <v>556</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="J60" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="K60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="L60" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="O60" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5995,56 +6417,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="X60" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="Y60" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36367</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146488</v>
+      </c>
+      <c r="C61" t="s">
+        <v>566</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="J61" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="K61" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="L61" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="O61" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6066,56 +6492,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="X61" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36367</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146489</v>
+      </c>
+      <c r="C62" t="s">
+        <v>575</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6137,47 +6567,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="X62" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="Y62" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36367</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146490</v>
+      </c>
+      <c r="C63" t="s">
+        <v>584</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="J63" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="K63" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="L63" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6204,56 +6638,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="X63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="Y63" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36367</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146491</v>
+      </c>
+      <c r="C64" t="s">
+        <v>591</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="J64" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="K64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="L64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="O64" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6275,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="X64" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="Y64" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_264.xlsx
@@ -2409,7 +2409,7 @@
         <v>36367</v>
       </c>
       <c r="B3" t="n">
-        <v>146445</v>
+        <v>177786</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2484,7 +2484,7 @@
         <v>36367</v>
       </c>
       <c r="B4" t="n">
-        <v>146446</v>
+        <v>177787</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -2630,7 +2630,7 @@
         <v>36367</v>
       </c>
       <c r="B6" t="n">
-        <v>146447</v>
+        <v>177788</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -2691,7 +2691,7 @@
         <v>36367</v>
       </c>
       <c r="B7" t="n">
-        <v>146448</v>
+        <v>177789</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -2766,7 +2766,7 @@
         <v>36367</v>
       </c>
       <c r="B8" t="n">
-        <v>146449</v>
+        <v>177790</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -2831,7 +2831,7 @@
         <v>36367</v>
       </c>
       <c r="B9" t="n">
-        <v>146450</v>
+        <v>177791</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -2896,7 +2896,7 @@
         <v>36367</v>
       </c>
       <c r="B10" t="n">
-        <v>146451</v>
+        <v>177792</v>
       </c>
       <c r="C10" t="s">
         <v>125</v>
@@ -2961,7 +2961,7 @@
         <v>36367</v>
       </c>
       <c r="B11" t="n">
-        <v>146452</v>
+        <v>177793</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3026,7 +3026,7 @@
         <v>36367</v>
       </c>
       <c r="B12" t="n">
-        <v>146453</v>
+        <v>146448</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -3097,7 +3097,7 @@
         <v>36367</v>
       </c>
       <c r="B13" t="n">
-        <v>146454</v>
+        <v>177794</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -3227,7 +3227,7 @@
         <v>36367</v>
       </c>
       <c r="B15" t="n">
-        <v>146455</v>
+        <v>177795</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -3302,7 +3302,7 @@
         <v>36367</v>
       </c>
       <c r="B16" t="n">
-        <v>146456</v>
+        <v>177796</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
@@ -3377,7 +3377,7 @@
         <v>36367</v>
       </c>
       <c r="B17" t="n">
-        <v>146457</v>
+        <v>177797</v>
       </c>
       <c r="C17" t="s">
         <v>192</v>
@@ -3527,7 +3527,7 @@
         <v>36367</v>
       </c>
       <c r="B19" t="n">
-        <v>146458</v>
+        <v>177798</v>
       </c>
       <c r="C19" t="s">
         <v>211</v>
@@ -3602,7 +3602,7 @@
         <v>36367</v>
       </c>
       <c r="B20" t="n">
-        <v>146452</v>
+        <v>146448</v>
       </c>
       <c r="C20" t="s">
         <v>145</v>
@@ -3671,7 +3671,7 @@
         <v>36367</v>
       </c>
       <c r="B21" t="n">
-        <v>146459</v>
+        <v>177799</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -3742,7 +3742,7 @@
         <v>36367</v>
       </c>
       <c r="B22" t="n">
-        <v>146460</v>
+        <v>177800</v>
       </c>
       <c r="C22" t="s">
         <v>239</v>
@@ -3813,7 +3813,7 @@
         <v>36367</v>
       </c>
       <c r="B23" t="n">
-        <v>146461</v>
+        <v>177801</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -3884,7 +3884,7 @@
         <v>36367</v>
       </c>
       <c r="B24" t="n">
-        <v>146462</v>
+        <v>177802</v>
       </c>
       <c r="C24" t="s">
         <v>259</v>
@@ -4024,7 +4024,7 @@
         <v>36367</v>
       </c>
       <c r="B26" t="n">
-        <v>146463</v>
+        <v>177803</v>
       </c>
       <c r="C26" t="s">
         <v>278</v>
@@ -4089,7 +4089,7 @@
         <v>36367</v>
       </c>
       <c r="B27" t="n">
-        <v>146464</v>
+        <v>177804</v>
       </c>
       <c r="C27" t="s">
         <v>288</v>
@@ -4154,7 +4154,7 @@
         <v>36367</v>
       </c>
       <c r="B28" t="n">
-        <v>146465</v>
+        <v>177805</v>
       </c>
       <c r="C28" t="s">
         <v>297</v>
@@ -4223,7 +4223,7 @@
         <v>36367</v>
       </c>
       <c r="B29" t="n">
-        <v>146466</v>
+        <v>177806</v>
       </c>
       <c r="C29" t="s">
         <v>306</v>
@@ -4363,7 +4363,7 @@
         <v>36367</v>
       </c>
       <c r="B31" t="n">
-        <v>146467</v>
+        <v>177807</v>
       </c>
       <c r="C31" t="s">
         <v>325</v>
@@ -4505,7 +4505,7 @@
         <v>36367</v>
       </c>
       <c r="B33" t="n">
-        <v>146468</v>
+        <v>177808</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -4572,7 +4572,7 @@
         <v>36367</v>
       </c>
       <c r="B34" t="n">
-        <v>146469</v>
+        <v>177809</v>
       </c>
       <c r="C34" t="s">
         <v>351</v>
@@ -4639,7 +4639,7 @@
         <v>36367</v>
       </c>
       <c r="B35" t="n">
-        <v>146470</v>
+        <v>177810</v>
       </c>
       <c r="C35" t="s">
         <v>358</v>
@@ -4706,7 +4706,7 @@
         <v>36367</v>
       </c>
       <c r="B36" t="n">
-        <v>146471</v>
+        <v>177811</v>
       </c>
       <c r="C36" t="s">
         <v>365</v>
@@ -4834,7 +4834,7 @@
         <v>36367</v>
       </c>
       <c r="B38" t="n">
-        <v>146472</v>
+        <v>177812</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -4901,7 +4901,7 @@
         <v>36367</v>
       </c>
       <c r="B39" t="n">
-        <v>146473</v>
+        <v>177813</v>
       </c>
       <c r="C39" t="s">
         <v>386</v>
@@ -5035,7 +5035,7 @@
         <v>36367</v>
       </c>
       <c r="B41" t="n">
-        <v>146474</v>
+        <v>177814</v>
       </c>
       <c r="C41" t="s">
         <v>399</v>
@@ -5236,7 +5236,7 @@
         <v>36367</v>
       </c>
       <c r="B44" t="n">
-        <v>146475</v>
+        <v>177815</v>
       </c>
       <c r="C44" t="s">
         <v>421</v>
@@ -5305,7 +5305,7 @@
         <v>36367</v>
       </c>
       <c r="B45" t="n">
-        <v>146476</v>
+        <v>177816</v>
       </c>
       <c r="C45" t="s">
         <v>431</v>
@@ -5366,7 +5366,7 @@
         <v>36367</v>
       </c>
       <c r="B46" t="n">
-        <v>146477</v>
+        <v>177817</v>
       </c>
       <c r="C46" t="s">
         <v>438</v>
@@ -5433,7 +5433,7 @@
         <v>36367</v>
       </c>
       <c r="B47" t="n">
-        <v>146478</v>
+        <v>177818</v>
       </c>
       <c r="C47" t="s">
         <v>446</v>
@@ -5583,7 +5583,7 @@
         <v>36367</v>
       </c>
       <c r="B49" t="n">
-        <v>146479</v>
+        <v>177819</v>
       </c>
       <c r="C49" t="s">
         <v>466</v>
@@ -5654,7 +5654,7 @@
         <v>36367</v>
       </c>
       <c r="B50" t="n">
-        <v>146480</v>
+        <v>177820</v>
       </c>
       <c r="C50" t="s">
         <v>474</v>
@@ -5725,7 +5725,7 @@
         <v>36367</v>
       </c>
       <c r="B51" t="n">
-        <v>146481</v>
+        <v>177821</v>
       </c>
       <c r="C51" t="s">
         <v>482</v>
@@ -5792,7 +5792,7 @@
         <v>36367</v>
       </c>
       <c r="B52" t="n">
-        <v>146482</v>
+        <v>177822</v>
       </c>
       <c r="C52" t="s">
         <v>489</v>
@@ -5863,7 +5863,7 @@
         <v>36367</v>
       </c>
       <c r="B53" t="n">
-        <v>146483</v>
+        <v>177823</v>
       </c>
       <c r="C53" t="s">
         <v>497</v>
@@ -5934,7 +5934,7 @@
         <v>36367</v>
       </c>
       <c r="B54" t="n">
-        <v>146484</v>
+        <v>177824</v>
       </c>
       <c r="C54" t="s">
         <v>503</v>
@@ -6066,7 +6066,7 @@
         <v>36367</v>
       </c>
       <c r="B56" t="n">
-        <v>146485</v>
+        <v>177825</v>
       </c>
       <c r="C56" t="s">
         <v>517</v>
@@ -6131,7 +6131,7 @@
         <v>36367</v>
       </c>
       <c r="B57" t="n">
-        <v>146486</v>
+        <v>177826</v>
       </c>
       <c r="C57" t="s">
         <v>527</v>
@@ -6356,7 +6356,7 @@
         <v>36367</v>
       </c>
       <c r="B60" t="n">
-        <v>146487</v>
+        <v>177827</v>
       </c>
       <c r="C60" t="s">
         <v>556</v>
@@ -6431,7 +6431,7 @@
         <v>36367</v>
       </c>
       <c r="B61" t="n">
-        <v>146488</v>
+        <v>177828</v>
       </c>
       <c r="C61" t="s">
         <v>566</v>
@@ -6506,7 +6506,7 @@
         <v>36367</v>
       </c>
       <c r="B62" t="n">
-        <v>146489</v>
+        <v>177829</v>
       </c>
       <c r="C62" t="s">
         <v>575</v>
@@ -6581,7 +6581,7 @@
         <v>36367</v>
       </c>
       <c r="B63" t="n">
-        <v>146490</v>
+        <v>177830</v>
       </c>
       <c r="C63" t="s">
         <v>584</v>
@@ -6652,7 +6652,7 @@
         <v>36367</v>
       </c>
       <c r="B64" t="n">
-        <v>146491</v>
+        <v>177831</v>
       </c>
       <c r="C64" t="s">
         <v>591</v>
